--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B561844-F251-418E-B6FF-2FF2BB23862B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ФИО</t>
   </si>
@@ -52,12 +53,84 @@
   </si>
   <si>
     <t>Оценка</t>
+  </si>
+  <si>
+    <t>Абраменкова Карина Павловна</t>
+  </si>
+  <si>
+    <t>Агапова Екатерина Олеговна</t>
+  </si>
+  <si>
+    <t>Бычкова Елена Романовна</t>
+  </si>
+  <si>
+    <t>Виноградов Владимир Владимирович</t>
+  </si>
+  <si>
+    <t>Воробьев Иван Александрович</t>
+  </si>
+  <si>
+    <t>Глазков Илья Максимович</t>
+  </si>
+  <si>
+    <t>Губеева София Юрьевна</t>
+  </si>
+  <si>
+    <t>Заднипрянец Екатерина Владиславовна</t>
+  </si>
+  <si>
+    <t>Ибрамхалилов Роман Ламетович</t>
+  </si>
+  <si>
+    <t>Капелина Анна Ивановна</t>
+  </si>
+  <si>
+    <t>Карасев Арсений Андреевич</t>
+  </si>
+  <si>
+    <t>Куулар Амина Сергеевна</t>
+  </si>
+  <si>
+    <t>Лищенко Александра Вадимовна</t>
+  </si>
+  <si>
+    <t>Лунин Владимир Анатольевич</t>
+  </si>
+  <si>
+    <t>Оганезов Михаил Алексеевич</t>
+  </si>
+  <si>
+    <t>Попова Полина Владиславовна</t>
+  </si>
+  <si>
+    <t>Родина Ксения Витальевна</t>
+  </si>
+  <si>
+    <t>Словогородская Елизавета Вячеславовна</t>
+  </si>
+  <si>
+    <t>Стоценко Александр Сергеевич</t>
+  </si>
+  <si>
+    <t>Таранов Артём Игоревич</t>
+  </si>
+  <si>
+    <t>Титова Надежда Алексеевна</t>
+  </si>
+  <si>
+    <t>Хрищанович Полина Чеславовна</t>
+  </si>
+  <si>
+    <t>Чиченкова Карина Вячеславовна</t>
+  </si>
+  <si>
+    <t>Щербаков Михаил Михайлович</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,36 +198,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -350,6 +393,34 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -359,18 +430,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -383,8 +448,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -664,378 +733,413 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="13"/>
+    <row r="2" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="13"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="13"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="13"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="13"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="9"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="13"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="13"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="9"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="13"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="13"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="9"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="13"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="9"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="13"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="9"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="13"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="9"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="13"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="9"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="13"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="9"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="13"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="9"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="13"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="9"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="13"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="9"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="13"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="9"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="13"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="9"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="13"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="9"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="13"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="9"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="13"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="9"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="17"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B561844-F251-418E-B6FF-2FF2BB23862B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A6F9EE-5FE1-4ACA-8E96-F152DC4AEFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лаба1 задания" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>ФИО</t>
   </si>
@@ -125,6 +126,18 @@
   </si>
   <si>
     <t>Щербаков Михаил Михайлович</t>
+  </si>
+  <si>
+    <t>Задание 3_8 без функции Math.Pow</t>
+  </si>
+  <si>
+    <t>Задание</t>
+  </si>
+  <si>
+    <t>Задание 1_14 и 1_15 без использования кортежей</t>
+  </si>
+  <si>
+    <t>Задание 1_14 и 1_15 без использования временной переменной</t>
   </si>
 </sst>
 </file>
@@ -737,13 +750,14 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1025,7 +1039,9 @@
       <c r="A18" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1145,4 +1161,47 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2E9D8B-2167-4F50-B37B-97C550D9E55B}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.21875" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A6F9EE-5FE1-4ACA-8E96-F152DC4AEFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лаба1 задания" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Лаба1 задания" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>ФИО</t>
   </si>
@@ -128,9 +127,6 @@
     <t>Щербаков Михаил Михайлович</t>
   </si>
   <si>
-    <t>Задание 3_8 без функции Math.Pow</t>
-  </si>
-  <si>
     <t>Задание</t>
   </si>
   <si>
@@ -138,12 +134,27 @@
   </si>
   <si>
     <t>Задание 1_14 и 1_15 без использования временной переменной</t>
+  </si>
+  <si>
+    <t>Задание 1_8 и 1_9 без вложенных циклов</t>
+  </si>
+  <si>
+    <t>Задание 1_9 без вызова функции факториала и степени</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>2_1 DRY + 3_9 без math.pow</t>
+  </si>
+  <si>
+    <t>Задание 1_14 без использования временной переменной</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -439,11 +450,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -467,6 +487,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -746,21 +767,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -795,7 +816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>11</v>
       </c>
@@ -810,7 +831,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
@@ -825,7 +846,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>13</v>
       </c>
@@ -840,11 +861,13 @@
       <c r="J4" s="9"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="9">
+        <v>5</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -855,11 +878,13 @@
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -870,7 +895,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>16</v>
       </c>
@@ -885,7 +910,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -900,7 +925,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>18</v>
       </c>
@@ -915,7 +940,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>19</v>
       </c>
@@ -930,7 +955,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>20</v>
       </c>
@@ -945,7 +970,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>21</v>
       </c>
@@ -960,7 +985,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>22</v>
       </c>
@@ -975,7 +1000,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>23</v>
       </c>
@@ -990,7 +1015,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>24</v>
       </c>
@@ -1005,11 +1030,13 @@
       <c r="J15" s="9"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1020,7 +1047,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>26</v>
       </c>
@@ -1035,12 +1062,12 @@
       <c r="J17" s="9"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>35</v>
+      <c r="B18" s="9">
+        <v>5</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1052,11 +1079,13 @@
       <c r="J18" s="9"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1067,11 +1096,13 @@
       <c r="J19" s="9"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1082,7 +1113,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>30</v>
       </c>
@@ -1097,7 +1128,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>31</v>
       </c>
@@ -1112,7 +1143,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>32</v>
       </c>
@@ -1127,7 +1158,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>33</v>
       </c>
@@ -1142,7 +1173,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>34</v>
       </c>
@@ -1164,41 +1195,81 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2E9D8B-2167-4F50-B37B-97C550D9E55B}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.21875" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C483FC45-1CA0-4127-A96A-2A92D9F687AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>ФИО</t>
   </si>
@@ -149,12 +150,15 @@
   </si>
   <si>
     <t>Задание 1_14 без использования временной переменной</t>
+  </si>
+  <si>
+    <t>+*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -488,6 +492,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -767,21 +772,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -816,7 +821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>11</v>
       </c>
@@ -831,7 +836,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
@@ -846,7 +851,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>13</v>
       </c>
@@ -861,7 +866,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
@@ -878,12 +883,12 @@
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>40</v>
+      <c r="B6" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -895,7 +900,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>16</v>
       </c>
@@ -910,7 +915,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -925,7 +930,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>18</v>
       </c>
@@ -940,7 +945,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>19</v>
       </c>
@@ -955,7 +960,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>20</v>
       </c>
@@ -970,7 +975,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>21</v>
       </c>
@@ -985,7 +990,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>22</v>
       </c>
@@ -1000,7 +1005,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>23</v>
       </c>
@@ -1015,7 +1020,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>24</v>
       </c>
@@ -1030,12 +1035,12 @@
       <c r="J15" s="9"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>40</v>
+      <c r="B16" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1047,7 +1052,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>26</v>
       </c>
@@ -1062,7 +1067,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>27</v>
       </c>
@@ -1079,7 +1084,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>28</v>
       </c>
@@ -1096,12 +1101,12 @@
       <c r="J19" s="9"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>40</v>
+      <c r="B20" s="9">
+        <v>5</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1113,7 +1118,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>30</v>
       </c>
@@ -1128,7 +1133,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>31</v>
       </c>
@@ -1143,7 +1148,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>32</v>
       </c>
@@ -1158,7 +1163,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>33</v>
       </c>
@@ -1173,7 +1178,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>34</v>
       </c>
@@ -1195,20 +1200,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1221,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>27</v>
       </c>
@@ -1224,7 +1229,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>25</v>
       </c>
@@ -1232,7 +1237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>29</v>
       </c>
@@ -1240,7 +1245,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
@@ -1248,7 +1253,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>28</v>
       </c>
@@ -1256,7 +1261,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>16</v>
       </c>
@@ -1264,7 +1269,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>14</v>
       </c>

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C483FC45-1CA0-4127-A96A-2A92D9F687AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>ФИО</t>
   </si>
@@ -143,9 +142,6 @@
     <t>Задание 1_9 без вызова функции факториала и степени</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>2_1 DRY + 3_9 без math.pow</t>
   </si>
   <si>
@@ -153,12 +149,15 @@
   </si>
   <si>
     <t>+*</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -463,11 +462,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -493,6 +544,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -772,101 +828,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="7"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="1"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>-1</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="1"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
@@ -879,319 +944,346 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I5" s="1"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C6" s="24"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="1"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I7" s="1"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="1"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I9" s="1"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I10" s="1"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I11" s="1"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="1"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="23">
+        <v>-1</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I13" s="1"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I14" s="1"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="20">
+        <v>5</v>
+      </c>
+      <c r="C15" s="24"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I15" s="1"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C16" s="24"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I16" s="1"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I17" s="1"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I18" s="1"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1"/>
+      <c r="B19" s="9">
+        <v>5</v>
+      </c>
+      <c r="C19" s="23"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I19" s="1"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="9">
         <v>5</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="1"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I21" s="1"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="1"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="1"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="23"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="1"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="13"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1200,20 +1292,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1313,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>27</v>
       </c>
@@ -1229,7 +1321,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>25</v>
       </c>
@@ -1237,7 +1329,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>29</v>
       </c>
@@ -1245,7 +1337,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
@@ -1253,28 +1345,28 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2DA37C-BF50-4B12-A160-D929187E0DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лаба1 задания" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>ФИО</t>
   </si>
@@ -148,16 +158,58 @@
     <t>Задание 1_14 без использования временной переменной</t>
   </si>
   <si>
-    <t>+*</t>
-  </si>
-  <si>
-    <t>+</t>
+    <t>Примечания к кр-1</t>
+  </si>
+  <si>
+    <t>неявка</t>
+  </si>
+  <si>
+    <t>ответ неверный во 2м номере</t>
+  </si>
+  <si>
+    <t>ответы неверные во 2м и 4м номерах</t>
+  </si>
+  <si>
+    <t>недостаточная точность в 1м номере</t>
+  </si>
+  <si>
+    <t>5й номер отсутствует</t>
+  </si>
+  <si>
+    <t>ответ неверный в 4м номере (+опечатка в 5м)</t>
+  </si>
+  <si>
+    <t>ответ неверный во 1м номере; 5й номер отсутствует  (-1 за списывание)</t>
+  </si>
+  <si>
+    <t>ответ неверный во 2м номере, 3 и 5й отсутствуют (-1 за списывание)</t>
+  </si>
+  <si>
+    <t>ответ неверный во 1м номере</t>
+  </si>
+  <si>
+    <t>ответ неверный во 2м номере; 5й отсутствует</t>
+  </si>
+  <si>
+    <t>ответ неверный во 1м номере; 2й и 5й номера отсутствуют</t>
+  </si>
+  <si>
+    <t>2й и 5й номера отсутствуют</t>
+  </si>
+  <si>
+    <t>но возведение присутствует</t>
+  </si>
+  <si>
+    <t>в 5м номере нет кода</t>
+  </si>
+  <si>
+    <t>ответ неверный во 2м номере; в 5м номере нет кода</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -297,13 +349,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -321,7 +373,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -330,52 +382,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -514,11 +521,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -533,27 +592,650 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -828,29 +1510,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="66.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -866,446 +1550,854 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="L1" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="22"/>
+      <c r="C2" s="19">
+        <v>4</v>
+      </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="2">
+        <f>C2+2*D2+E2+F2+H2+2*G2+2*I2</f>
+        <v>4</v>
+      </c>
+      <c r="K2" s="23">
+        <f>_xlfn.FLOOR.MATH(1+J2/10)</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="23"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="20">
+        <v>3</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J25" si="0">C3+2*D3+E3+F3+H3+2*G3+2*I3</f>
+        <v>3</v>
+      </c>
+      <c r="K3" s="23">
+        <f t="shared" ref="K3:K25" si="1">_xlfn.FLOOR.MATH(1+J3/10)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K4" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>5</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K5" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="24"/>
+      <c r="B6" s="17">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21">
+        <v>5</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="I6" s="12"/>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K6" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="20">
+        <v>5</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K7" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="24"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="20">
+        <v>5</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="I8" s="12"/>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K8" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="20">
+        <v>4</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="I9" s="12"/>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K9" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="20">
+        <v>4</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="I10" s="12"/>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K10" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="20">
+        <v>5</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="I11" s="12"/>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K11" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="I12" s="12"/>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="23">
-        <v>-1</v>
+      <c r="B13" s="8"/>
+      <c r="C13" s="20">
+        <v>2</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="I13" s="12"/>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K13" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="20">
+        <v>5</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="I14" s="12"/>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K14" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>5</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="21">
+        <v>3</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="I15" s="12"/>
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K15" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="24"/>
+      <c r="B16" s="17">
+        <v>0</v>
+      </c>
+      <c r="C16" s="21">
+        <v>5</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="I16" s="12"/>
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K16" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="20">
+        <v>3</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="I17" s="12"/>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K17" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>5</v>
       </c>
-      <c r="C18" s="23"/>
+      <c r="C18" s="20">
+        <v>4</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="I18" s="12"/>
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K18" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>5</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="20">
+        <v>4</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="I19" s="12"/>
+      <c r="J19" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K19" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>5</v>
       </c>
-      <c r="C20" s="23"/>
+      <c r="C20" s="20">
+        <v>3</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="I20" s="12"/>
+      <c r="J20" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K20" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="20">
+        <v>2</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="I21" s="12"/>
+      <c r="J21" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K21" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="20">
+        <v>4</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="10"/>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="I22" s="12"/>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K22" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="20">
+        <v>3</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="10"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="I23" s="12"/>
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K23" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="23"/>
+      <c r="B24" s="8">
+        <v>0</v>
+      </c>
+      <c r="C24" s="20">
+        <v>5</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="I24" s="12"/>
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K24" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L24" s="24"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="13"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="22">
+        <v>5</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K25" s="26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="L2:L3 L6:L8 L19 L16 L14 L24:L25 L10:L12">
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C25">
+    <cfRule type="cellIs" dxfId="57" priority="53" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="54" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="57" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="58" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18">
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1313,59 +2405,59 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>41</v>
       </c>
     </row>

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2DA37C-BF50-4B12-A160-D929187E0DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48FA215-339E-41EA-ACE2-F76436FD5C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,87 +614,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="54">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1514,7 +1434,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1826,7 +1746,9 @@
         <v>21</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2191,162 +2113,162 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:L3 L6:L8 L19 L16 L14 L24:L25 L10:L12">
-    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="60" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="61" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="cellIs" dxfId="57" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="55" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="56" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="57" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="58" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="49" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="50" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="51" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="52" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="41" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="43" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48FA215-339E-41EA-ACE2-F76436FD5C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF70E314-636F-4730-8640-5EC20ACBC0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1434,7 +1434,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1695,7 +1695,9 @@
       <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
       <c r="C10" s="20">
         <v>4</v>
       </c>
@@ -1827,7 +1829,9 @@
       <c r="C15" s="21">
         <v>3</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1963,7 +1967,9 @@
       <c r="C20" s="20">
         <v>3</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF70E314-636F-4730-8640-5EC20ACBC0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лаба1 задания" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>ФИО</t>
   </si>
@@ -204,12 +203,15 @@
   </si>
   <si>
     <t>ответ неверный во 2м номере; в 5м номере нет кода</t>
+  </si>
+  <si>
+    <t>3й защищен</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1430,24 +1432,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="66.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="66.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1487,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
@@ -1511,7 +1513,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
@@ -1537,7 +1539,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
@@ -1563,7 +1565,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
@@ -1591,12 +1593,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="21">
         <v>5</v>
@@ -1617,11 +1619,13 @@
       </c>
       <c r="L6" s="24"/>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
       <c r="C7" s="20">
         <v>5</v>
       </c>
@@ -1641,7 +1645,7 @@
       </c>
       <c r="L7" s="24"/>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
@@ -1664,8 +1668,11 @@
         <v>1</v>
       </c>
       <c r="L8" s="24"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
@@ -1691,7 +1698,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
@@ -1719,11 +1726,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8">
+        <v>5</v>
+      </c>
       <c r="C11" s="20">
         <v>5</v>
       </c>
@@ -1743,7 +1752,7 @@
       </c>
       <c r="L11" s="24"/>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
@@ -1769,7 +1778,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
@@ -1795,7 +1804,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
@@ -1819,7 +1828,7 @@
       </c>
       <c r="L14" s="24"/>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
@@ -1830,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1839,22 +1848,22 @@
       <c r="I15" s="12"/>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K15" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C16" s="21">
         <v>5</v>
@@ -1875,11 +1884,13 @@
       </c>
       <c r="L16" s="24"/>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="8">
+        <v>5</v>
+      </c>
       <c r="C17" s="20">
         <v>3</v>
       </c>
@@ -1901,7 +1912,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
@@ -1929,7 +1940,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
@@ -1957,7 +1968,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>29</v>
       </c>
@@ -1987,7 +1998,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>30</v>
       </c>
@@ -2013,7 +2024,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>31</v>
       </c>
@@ -2039,7 +2050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>32</v>
       </c>
@@ -2065,12 +2076,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C24" s="20">
         <v>5</v>
@@ -2091,11 +2102,13 @@
       </c>
       <c r="L24" s="24"/>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="9">
+        <v>5</v>
+      </c>
       <c r="C25" s="22">
         <v>5</v>
       </c>
@@ -2312,20 +2325,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2333,7 +2346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>27</v>
       </c>
@@ -2341,7 +2354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>25</v>
       </c>
@@ -2349,7 +2362,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>29</v>
       </c>
@@ -2357,7 +2370,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
@@ -2365,7 +2378,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>28</v>
       </c>
@@ -2373,7 +2386,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -2381,7 +2394,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>14</v>
       </c>

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650A2CA2-4333-4332-9C7B-6C43496396A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="38505" yWindow="960" windowWidth="21495" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лаба1 задания" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -211,7 +212,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1432,24 +1433,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
@@ -1565,7 +1566,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
@@ -1575,7 +1576,9 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1593,7 +1596,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -1603,7 +1606,9 @@
       <c r="C6" s="21">
         <v>5</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1619,7 +1624,7 @@
       </c>
       <c r="L6" s="24"/>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -1629,7 +1634,9 @@
       <c r="C7" s="20">
         <v>5</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1645,7 +1652,7 @@
       </c>
       <c r="L7" s="24"/>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
@@ -1672,7 +1679,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
@@ -1698,12 +1705,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" s="20">
         <v>4</v>
@@ -1726,7 +1733,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
@@ -1752,7 +1759,7 @@
       </c>
       <c r="L11" s="24"/>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
@@ -1778,7 +1785,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
@@ -1804,7 +1811,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
@@ -1828,7 +1835,7 @@
       </c>
       <c r="L14" s="24"/>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
@@ -1841,7 +1848,9 @@
       <c r="D15" s="1">
         <v>5</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1858,7 +1867,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
@@ -1868,7 +1877,9 @@
       <c r="C16" s="21">
         <v>5</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1884,7 +1895,7 @@
       </c>
       <c r="L16" s="24"/>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
@@ -1912,7 +1923,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
@@ -1922,7 +1933,9 @@
       <c r="C18" s="20">
         <v>4</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1940,7 +1953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
@@ -1968,7 +1981,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>29</v>
       </c>
@@ -1998,7 +2011,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>30</v>
       </c>
@@ -2024,7 +2037,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>31</v>
       </c>
@@ -2050,7 +2063,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>32</v>
       </c>
@@ -2076,7 +2089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
@@ -2102,7 +2115,7 @@
       </c>
       <c r="L24" s="24"/>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
@@ -2325,20 +2338,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2346,7 +2359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>27</v>
       </c>
@@ -2354,7 +2367,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>25</v>
       </c>
@@ -2362,7 +2375,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>29</v>
       </c>
@@ -2370,7 +2383,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
@@ -2378,7 +2391,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>28</v>
       </c>
@@ -2386,7 +2399,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -2394,7 +2407,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>14</v>
       </c>

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650A2CA2-4333-4332-9C7B-6C43496396A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC02C61-EDB5-49B1-B0ED-3FD6D10E4447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38505" yWindow="960" windowWidth="21495" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>ФИО</t>
   </si>
@@ -59,12 +59,6 @@
     <t>КР-3</t>
   </si>
   <si>
-    <t>Итог</t>
-  </si>
-  <si>
-    <t>Оценка</t>
-  </si>
-  <si>
     <t>Абраменкова Карина Павловна</t>
   </si>
   <si>
@@ -207,6 +201,15 @@
   </si>
   <si>
     <t>3й защищен</t>
+  </si>
+  <si>
+    <t>Half-term</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Total score</t>
   </si>
 </sst>
 </file>
@@ -564,10 +567,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -580,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -612,12 +615,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="61">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1434,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1446,11 +1518,12 @@
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="66.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1467,30 +1540,33 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>11</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="19">
@@ -1502,21 +1578,25 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="2">
-        <f>C2+2*D2+E2+F2+H2+2*G2+2*I2</f>
-        <v>4</v>
+      <c r="J2" s="6">
+        <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+2.5*I2,0)</f>
+        <v>8</v>
       </c>
       <c r="K2" s="23">
-        <f>_xlfn.FLOOR.MATH(1+J2/10)</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <f>IF(J2&gt;57.5/4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="23">
+        <f>MAX(_xlfn.FLOOR.MATH((J2-5)/10),2)</f>
+        <v>2</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="20">
@@ -1528,23 +1608,29 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:J25" si="0">C3+2*D3+E3+F3+H3+2*G3+2*I3</f>
-        <v>3</v>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J25" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+2.5*I3,0)</f>
+        <v>6</v>
       </c>
       <c r="K3" s="23">
-        <f t="shared" ref="K3:K25" si="1">_xlfn.FLOOR.MATH(1+J3/10)</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="K3:K25" si="1">IF(J3&gt;57.5/4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="23">
+        <f t="shared" ref="L3:L25" si="2">MAX(_xlfn.FLOOR.MATH((J3-5)/10),2)</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B4" s="8">
+        <v>-1</v>
+      </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -1554,21 +1640,25 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="2">
+      <c r="J4" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K4" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L4" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="8">
         <v>5</v>
@@ -1584,21 +1674,25 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="2">
+      <c r="J5" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K5" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L5" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="17">
         <v>5</v>
@@ -1614,19 +1708,23 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="2">
+      <c r="J6" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K6" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L6" s="24"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="8">
         <v>5</v>
@@ -1642,19 +1740,23 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="2">
+      <c r="J7" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K7" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L7" s="24"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L7" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="20">
@@ -1666,22 +1768,26 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="2">
+      <c r="J8" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K8" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L8" s="24"/>
-      <c r="M8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L8" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M8" s="24"/>
+      <c r="N8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="20">
@@ -1693,21 +1799,25 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="2">
+      <c r="J9" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K9" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L9" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="8">
         <v>5</v>
@@ -1721,21 +1831,25 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="2">
+      <c r="J10" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K10" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L10" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8">
         <v>5</v>
@@ -1749,19 +1863,23 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="2">
+      <c r="J11" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K11" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L11" s="24"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L11" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M11" s="24"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="20">
@@ -1773,21 +1891,25 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="2">
+      <c r="J12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K12" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L12" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="20">
@@ -1799,21 +1921,25 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="2">
+      <c r="J13" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K13" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L13" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="20">
@@ -1825,19 +1951,23 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="2">
+      <c r="J14" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K14" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L14" s="24"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L14" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="17">
         <v>5</v>
@@ -1855,21 +1985,25 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="2">
+      <c r="J15" s="6">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K15" s="23">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="23">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L15" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M15" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="17">
         <v>5</v>
@@ -1885,19 +2019,23 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="12"/>
-      <c r="J16" s="2">
+      <c r="J16" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K16" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L16" s="24"/>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L16" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="8">
         <v>5</v>
@@ -1911,21 +2049,25 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="2">
+      <c r="J17" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K17" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L17" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="8">
         <v>5</v>
@@ -1941,21 +2083,25 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="2">
+      <c r="J18" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K18" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L18" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" s="8">
         <v>5</v>
@@ -1969,21 +2115,25 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="2">
+      <c r="J19" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K19" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L19" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="8">
         <v>5</v>
@@ -1999,21 +2149,25 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="2">
+      <c r="J20" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K20" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L20" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="20">
@@ -2025,21 +2179,25 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="2">
+      <c r="J21" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K21" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L21" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="20">
@@ -2051,21 +2209,25 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="2">
+      <c r="J22" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K22" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L22" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="20">
@@ -2077,21 +2239,25 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="2">
+      <c r="J23" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K23" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L23" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L23" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="8">
         <v>5</v>
@@ -2105,19 +2271,23 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="12"/>
-      <c r="J24" s="2">
+      <c r="J24" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K24" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L24" s="24"/>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L24" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M24" s="24"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" s="9">
         <v>5</v>
@@ -2131,204 +2301,227 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="27">
+      <c r="J25" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K25" s="26">
+        <v>15</v>
+      </c>
+      <c r="K25" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L25" s="25" t="s">
-        <v>55</v>
+      <c r="L25" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M25" s="25" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L3 L6:L8 L19 L16 L14 L24:L25 L10:L12">
-    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
+  <conditionalFormatting sqref="M2:M3 M6:M8 M19 M16 M14 M24:M25 M10:M12">
+    <cfRule type="cellIs" dxfId="60" priority="66" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="67" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="68" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="69" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="63" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="64" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="65" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="43" priority="49" operator="equal">
+  <conditionalFormatting sqref="M5">
+    <cfRule type="cellIs" dxfId="50" priority="56" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="57" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="58" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="59" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
+  <conditionalFormatting sqref="M20">
+    <cfRule type="cellIs" dxfId="46" priority="52" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="55" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
-    <cfRule type="cellIs" dxfId="35" priority="41" operator="equal">
+  <conditionalFormatting sqref="M18">
+    <cfRule type="cellIs" dxfId="42" priority="48" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="50" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="51" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
+  <conditionalFormatting sqref="M15">
+    <cfRule type="cellIs" dxfId="38" priority="44" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="45" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="46" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="47" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+  <conditionalFormatting sqref="M13">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="38" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+  <conditionalFormatting sqref="M22">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+  <conditionalFormatting sqref="M4">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+  <conditionalFormatting sqref="M9">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+  <conditionalFormatting sqref="M23">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+  <conditionalFormatting sqref="M21">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="M17">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K25">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L25">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2356,63 +2549,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC02C61-EDB5-49B1-B0ED-3FD6D10E4447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3B30A3-A1D7-405C-8619-20B9AF41914E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,7 +619,27 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -627,46 +647,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1509,7 +1489,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K2" sqref="K2:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1583,7 +1563,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="23">
-        <f>IF(J2&gt;57.5/4,1,0)</f>
+        <f>IF(J2&gt;57.5/5,1,0)</f>
         <v>0</v>
       </c>
       <c r="L2" s="23">
@@ -1613,7 +1593,7 @@
         <v>6</v>
       </c>
       <c r="K3" s="23">
-        <f t="shared" ref="K3:K25" si="1">IF(J3&gt;57.5/4,1,0)</f>
+        <f t="shared" ref="K3:K25" si="1">IF(J3&gt;57.5/5,1,0)</f>
         <v>0</v>
       </c>
       <c r="L3" s="23">
@@ -1837,7 +1817,7 @@
       </c>
       <c r="K10" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="23">
         <f t="shared" si="2"/>
@@ -2089,7 +2069,7 @@
       </c>
       <c r="K18" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="23">
         <f t="shared" si="2"/>
@@ -2121,7 +2101,7 @@
       </c>
       <c r="K19" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="23">
         <f t="shared" si="2"/>
@@ -2319,209 +2299,209 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M2:M3 M6:M8 M19 M16 M14 M24:M25 M10:M12">
-    <cfRule type="cellIs" dxfId="60" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="66" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="67" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="68" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="69" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="61" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="62" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="64" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="65" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="50" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="56" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="57" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="58" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="59" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="cellIs" dxfId="46" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="55" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="cellIs" dxfId="42" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="48" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="49" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="50" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="51" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="38" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="44" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="46" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="47" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K25">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L25">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -4,22 +4,32 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лаба1 задания" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>ФИО</t>
   </si>
@@ -48,10 +58,151 @@
     <t>КР-3</t>
   </si>
   <si>
-    <t>Итог</t>
-  </si>
-  <si>
-    <t>Оценка</t>
+    <t>Абраменкова Карина Павловна</t>
+  </si>
+  <si>
+    <t>Агапова Екатерина Олеговна</t>
+  </si>
+  <si>
+    <t>Бычкова Елена Романовна</t>
+  </si>
+  <si>
+    <t>Виноградов Владимир Владимирович</t>
+  </si>
+  <si>
+    <t>Воробьев Иван Александрович</t>
+  </si>
+  <si>
+    <t>Глазков Илья Максимович</t>
+  </si>
+  <si>
+    <t>Губеева София Юрьевна</t>
+  </si>
+  <si>
+    <t>Заднипрянец Екатерина Владиславовна</t>
+  </si>
+  <si>
+    <t>Ибрамхалилов Роман Ламетович</t>
+  </si>
+  <si>
+    <t>Капелина Анна Ивановна</t>
+  </si>
+  <si>
+    <t>Карасев Арсений Андреевич</t>
+  </si>
+  <si>
+    <t>Куулар Амина Сергеевна</t>
+  </si>
+  <si>
+    <t>Лищенко Александра Вадимовна</t>
+  </si>
+  <si>
+    <t>Лунин Владимир Анатольевич</t>
+  </si>
+  <si>
+    <t>Оганезов Михаил Алексеевич</t>
+  </si>
+  <si>
+    <t>Попова Полина Владиславовна</t>
+  </si>
+  <si>
+    <t>Родина Ксения Витальевна</t>
+  </si>
+  <si>
+    <t>Словогородская Елизавета Вячеславовна</t>
+  </si>
+  <si>
+    <t>Стоценко Александр Сергеевич</t>
+  </si>
+  <si>
+    <t>Таранов Артём Игоревич</t>
+  </si>
+  <si>
+    <t>Титова Надежда Алексеевна</t>
+  </si>
+  <si>
+    <t>Хрищанович Полина Чеславовна</t>
+  </si>
+  <si>
+    <t>Чиченкова Карина Вячеславовна</t>
+  </si>
+  <si>
+    <t>Щербаков Михаил Михайлович</t>
+  </si>
+  <si>
+    <t>Задание</t>
+  </si>
+  <si>
+    <t>Задание 1_14 и 1_15 без использования кортежей</t>
+  </si>
+  <si>
+    <t>Задание 1_14 и 1_15 без использования временной переменной</t>
+  </si>
+  <si>
+    <t>Задание 1_8 и 1_9 без вложенных циклов</t>
+  </si>
+  <si>
+    <t>Задание 1_9 без вызова функции факториала и степени</t>
+  </si>
+  <si>
+    <t>2_1 DRY + 3_9 без math.pow</t>
+  </si>
+  <si>
+    <t>Задание 1_14 без использования временной переменной</t>
+  </si>
+  <si>
+    <t>Примечания к кр-1</t>
+  </si>
+  <si>
+    <t>неявка</t>
+  </si>
+  <si>
+    <t>ответ неверный во 2м номере</t>
+  </si>
+  <si>
+    <t>ответы неверные во 2м и 4м номерах</t>
+  </si>
+  <si>
+    <t>недостаточная точность в 1м номере</t>
+  </si>
+  <si>
+    <t>5й номер отсутствует</t>
+  </si>
+  <si>
+    <t>ответ неверный в 4м номере (+опечатка в 5м)</t>
+  </si>
+  <si>
+    <t>ответ неверный во 1м номере</t>
+  </si>
+  <si>
+    <t>ответ неверный во 2м номере; 5й отсутствует</t>
+  </si>
+  <si>
+    <t>ответ неверный во 1м номере; 2й и 5й номера отсутствуют</t>
+  </si>
+  <si>
+    <t>2й и 5й номера отсутствуют</t>
+  </si>
+  <si>
+    <t>но возведение присутствует</t>
+  </si>
+  <si>
+    <t>в 5м номере нет кода</t>
+  </si>
+  <si>
+    <t>3й защищен</t>
+  </si>
+  <si>
+    <t>Half-term</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Total score</t>
+  </si>
+  <si>
+    <t>переписаны верно все номера</t>
   </si>
 </sst>
 </file>
@@ -83,7 +234,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -125,13 +276,43 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -140,13 +321,28 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -158,7 +354,22 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -173,7 +384,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -185,10 +396,34 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -200,13 +435,126 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -215,139 +563,8 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -359,18 +576,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -380,16 +591,699 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -665,380 +1559,1139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="19">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="6">
+        <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+2.5*I2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="K2" s="23">
+        <f>IF(J2&gt;57.5/5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="23">
+        <f>MAX(_xlfn.FLOOR.MATH((J2-5)/10),2)</f>
+        <v>2</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="20">
+        <v>3</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="1"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J25" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+2.5*I3,0)</f>
+        <v>6</v>
+      </c>
+      <c r="K3" s="23">
+        <f t="shared" ref="K3:K25" si="1">IF(J3&gt;57.5/5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="23">
+        <f t="shared" ref="L3:L25" si="2">MAX(_xlfn.FLOOR.MATH((J3-5)/10),2)</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K4" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K5" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="17">
+        <v>5</v>
+      </c>
+      <c r="C6" s="21">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K6" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K7" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="20">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="1"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="K8" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M8" s="24"/>
+      <c r="N8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" s="20">
+        <v>4</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K9" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8">
+        <v>5</v>
+      </c>
+      <c r="C10" s="20">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K10" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8">
+        <v>5</v>
+      </c>
+      <c r="C11" s="20">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="1"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K11" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M11" s="24"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="8">
+        <v>4</v>
+      </c>
+      <c r="C13" s="20">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-1</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="1"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="K13" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="20">
+        <v>5</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K14" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="17">
+        <v>5</v>
+      </c>
+      <c r="C15" s="21">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="K15" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="17">
+        <v>5</v>
+      </c>
+      <c r="C16" s="21">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K16" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="8">
+        <v>5</v>
+      </c>
+      <c r="C17" s="20">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K17" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5</v>
+      </c>
+      <c r="C18" s="20">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K18" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="8">
+        <v>5</v>
+      </c>
+      <c r="C19" s="20">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K19" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="8">
+        <v>5</v>
+      </c>
+      <c r="C20" s="20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="1"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="K20" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="20">
+        <v>2</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K21" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="8">
+        <v>4</v>
+      </c>
+      <c r="C22" s="20">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="K22" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="8">
+        <v>4</v>
+      </c>
+      <c r="C23" s="20">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K23" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="8">
+        <v>5</v>
+      </c>
+      <c r="C24" s="20">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="17"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K24" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L24" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M24" s="24"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="9">
+        <v>5</v>
+      </c>
+      <c r="C25" s="22">
+        <v>5</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K25" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L25" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M25" s="25" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M2:M3 M6:M8 M19 M16 M14 M24:M25 M10:M12">
+    <cfRule type="cellIs" dxfId="66" priority="82" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="83" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="84" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="85" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C25">
+    <cfRule type="cellIs" dxfId="62" priority="76" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="77" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="78" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="79" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="80" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="81" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="cellIs" dxfId="56" priority="72" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="73" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="74" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="75" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20">
+    <cfRule type="cellIs" dxfId="52" priority="68" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="69" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="70" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="71" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18">
+    <cfRule type="cellIs" dxfId="48" priority="64" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="65" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="66" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="67" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="cellIs" dxfId="44" priority="60" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="61" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="62" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="63" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22">
+    <cfRule type="cellIs" dxfId="40" priority="48" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="49" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="50" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="51" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="41" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="42" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="43" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23">
+    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="37" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="39" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K25">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L25">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3B30A3-A1D7-405C-8619-20B9AF41914E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B207D7-0274-459F-A68C-355DE38F643B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>ФИО</t>
   </si>
@@ -173,12 +173,6 @@
     <t>ответ неверный в 4м номере (+опечатка в 5м)</t>
   </si>
   <si>
-    <t>ответ неверный во 1м номере; 5й номер отсутствует  (-1 за списывание)</t>
-  </si>
-  <si>
-    <t>ответ неверный во 2м номере, 3 и 5й отсутствуют (-1 за списывание)</t>
-  </si>
-  <si>
     <t>ответ неверный во 1м номере</t>
   </si>
   <si>
@@ -197,9 +191,6 @@
     <t>в 5м номере нет кода</t>
   </si>
   <si>
-    <t>ответ неверный во 2м номере; в 5м номере нет кода</t>
-  </si>
-  <si>
     <t>3й защищен</t>
   </si>
   <si>
@@ -210,6 +201,9 @@
   </si>
   <si>
     <t>Total score</t>
+  </si>
+  <si>
+    <t>переписаны верно все номера</t>
   </si>
 </sst>
 </file>
@@ -642,6 +636,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -662,6 +666,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -732,16 +756,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -757,26 +771,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1489,7 +1483,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K25"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1532,13 +1526,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M1" s="18" t="s">
         <v>40</v>
@@ -1548,7 +1542,9 @@
       <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="6">
+        <v>4</v>
+      </c>
       <c r="C2" s="19">
         <v>4</v>
       </c>
@@ -1560,29 +1556,33 @@
       <c r="I2" s="11"/>
       <c r="J2" s="6">
         <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+2.5*I2,0)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K2" s="23">
         <f>IF(J2&gt;57.5/5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="23">
         <f>MAX(_xlfn.FLOOR.MATH((J2-5)/10),2)</f>
         <v>2</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8">
+        <v>-2</v>
+      </c>
       <c r="C3" s="20">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1590,7 +1590,7 @@
       <c r="I3" s="12"/>
       <c r="J3" s="6">
         <f t="shared" ref="J3:J25" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+2.5*I3,0)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K3" s="23">
         <f t="shared" ref="K3:K25" si="1">IF(J3&gt;57.5/5,1,0)</f>
@@ -1601,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1609,10 +1609,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1622,18 +1622,18 @@
       <c r="I4" s="12"/>
       <c r="J4" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K4" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="23">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1644,10 +1644,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1656,18 +1656,18 @@
       <c r="I5" s="12"/>
       <c r="J5" s="6">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K5" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="23">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1681,7 +1681,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1690,7 +1690,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K6" s="23">
         <f t="shared" si="1"/>
@@ -1713,7 +1713,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1722,7 +1722,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K7" s="23">
         <f t="shared" si="1"/>
@@ -1738,11 +1738,15 @@
       <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
       <c r="C8" s="20">
         <v>5</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1750,11 +1754,11 @@
       <c r="I8" s="12"/>
       <c r="J8" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K8" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="23">
         <f t="shared" si="2"/>
@@ -1762,14 +1766,16 @@
       </c>
       <c r="M8" s="24"/>
       <c r="N8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8">
+        <v>4</v>
+      </c>
       <c r="C9" s="20">
         <v>4</v>
       </c>
@@ -1781,18 +1787,18 @@
       <c r="I9" s="12"/>
       <c r="J9" s="6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K9" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="23">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1805,7 +1811,9 @@
       <c r="C10" s="20">
         <v>4</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1813,7 +1821,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="6">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K10" s="23">
         <f t="shared" si="1"/>
@@ -1837,7 +1845,9 @@
       <c r="C11" s="20">
         <v>5</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1845,7 +1855,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K11" s="23">
         <f t="shared" si="1"/>
@@ -1891,11 +1901,15 @@
       <c r="A13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8">
+        <v>4</v>
+      </c>
       <c r="C13" s="20">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-1</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1903,7 +1917,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K13" s="23">
         <f t="shared" si="1"/>
@@ -1913,8 +1927,8 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M13" s="24" t="s">
-        <v>47</v>
+      <c r="M13" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1959,15 +1973,17 @@
         <v>5</v>
       </c>
       <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="12"/>
       <c r="J15" s="6">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K15" s="23">
         <f t="shared" si="1"/>
@@ -1992,7 +2008,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -2001,7 +2017,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K16" s="23">
         <f t="shared" si="1"/>
@@ -2021,9 +2037,11 @@
         <v>5</v>
       </c>
       <c r="C17" s="20">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2031,18 +2049,18 @@
       <c r="I17" s="12"/>
       <c r="J17" s="6">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K17" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="23">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2056,7 +2074,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2065,7 +2083,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="6">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K18" s="23">
         <f t="shared" si="1"/>
@@ -2089,7 +2107,9 @@
       <c r="C19" s="20">
         <v>4</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2097,7 +2117,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="6">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K19" s="23">
         <f t="shared" si="1"/>
@@ -2122,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2131,11 +2151,11 @@
       <c r="I20" s="12"/>
       <c r="J20" s="6">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K20" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="23">
         <f t="shared" si="2"/>
@@ -2172,18 +2192,22 @@
         <v>2</v>
       </c>
       <c r="M21" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="8">
+        <v>4</v>
+      </c>
       <c r="C22" s="20">
         <v>4</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -2191,11 +2215,11 @@
       <c r="I22" s="12"/>
       <c r="J22" s="6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K22" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="23">
         <f t="shared" si="2"/>
@@ -2209,11 +2233,15 @@
       <c r="A23" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="8">
+        <v>4</v>
+      </c>
       <c r="C23" s="20">
         <v>3</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -2221,18 +2249,18 @@
       <c r="I23" s="12"/>
       <c r="J23" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K23" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="23">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2245,7 +2273,9 @@
       <c r="C24" s="20">
         <v>5</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2253,7 +2283,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K24" s="23">
         <f t="shared" si="1"/>
@@ -2294,214 +2324,214 @@
         <v>2</v>
       </c>
       <c r="M25" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M2:M3 M6:M8 M19 M16 M14 M24:M25 M10:M12">
-    <cfRule type="cellIs" dxfId="58" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="82" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="83" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="84" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="85" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="78" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="79" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="80" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="81" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="48" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="72" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="73" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="74" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="75" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="68" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="69" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="70" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="71" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="cellIs" dxfId="40" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="64" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="65" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="66" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="67" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="36" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="60" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="61" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="62" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="63" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22">
+    <cfRule type="cellIs" dxfId="32" priority="48" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="49" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="50" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="51" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="41" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="43" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23">
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="37" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="38" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="39" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21">
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K25">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L25">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M22">
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M9">
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M23">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M17">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K25">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L25">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>ФИО</t>
   </si>
@@ -48,10 +57,130 @@
     <t>КР-3</t>
   </si>
   <si>
-    <t>Итог</t>
-  </si>
-  <si>
-    <t>Оценка</t>
+    <t>Абраменкова Карина Павловна</t>
+  </si>
+  <si>
+    <t>Агапова Екатерина Олеговна</t>
+  </si>
+  <si>
+    <t>Бычкова Елена Романовна</t>
+  </si>
+  <si>
+    <t>Виноградов Владимир Владимирович</t>
+  </si>
+  <si>
+    <t>Воробьев Иван Александрович</t>
+  </si>
+  <si>
+    <t>Глазков Илья Максимович</t>
+  </si>
+  <si>
+    <t>Губеева София Юрьевна</t>
+  </si>
+  <si>
+    <t>Заднипрянец Екатерина Владиславовна</t>
+  </si>
+  <si>
+    <t>Ибрамхалилов Роман Ламетович</t>
+  </si>
+  <si>
+    <t>Капелина Анна Ивановна</t>
+  </si>
+  <si>
+    <t>Карасев Арсений Андреевич</t>
+  </si>
+  <si>
+    <t>Куулар Амина Сергеевна</t>
+  </si>
+  <si>
+    <t>Лищенко Александра Вадимовна</t>
+  </si>
+  <si>
+    <t>Лунин Владимир Анатольевич</t>
+  </si>
+  <si>
+    <t>Оганезов Михаил Алексеевич</t>
+  </si>
+  <si>
+    <t>Попова Полина Владиславовна</t>
+  </si>
+  <si>
+    <t>Родина Ксения Витальевна</t>
+  </si>
+  <si>
+    <t>Словогородская Елизавета Вячеславовна</t>
+  </si>
+  <si>
+    <t>Стоценко Александр Сергеевич</t>
+  </si>
+  <si>
+    <t>Таранов Артём Игоревич</t>
+  </si>
+  <si>
+    <t>Титова Надежда Алексеевна</t>
+  </si>
+  <si>
+    <t>Хрищанович Полина Чеславовна</t>
+  </si>
+  <si>
+    <t>Чиченкова Карина Вячеславовна</t>
+  </si>
+  <si>
+    <t>Щербаков Михаил Михайлович</t>
+  </si>
+  <si>
+    <t>Примечания к кр-1</t>
+  </si>
+  <si>
+    <t>неявка</t>
+  </si>
+  <si>
+    <t>ответ неверный во 2м номере</t>
+  </si>
+  <si>
+    <t>ответы неверные во 2м и 4м номерах</t>
+  </si>
+  <si>
+    <t>недостаточная точность в 1м номере</t>
+  </si>
+  <si>
+    <t>5й номер отсутствует</t>
+  </si>
+  <si>
+    <t>ответ неверный в 4м номере (+опечатка в 5м)</t>
+  </si>
+  <si>
+    <t>ответ неверный во 1м номере</t>
+  </si>
+  <si>
+    <t>ответ неверный во 2м номере; 5й отсутствует</t>
+  </si>
+  <si>
+    <t>ответ неверный во 1м номере; 2й и 5й номера отсутствуют</t>
+  </si>
+  <si>
+    <t>2й и 5й номера отсутствуют</t>
+  </si>
+  <si>
+    <t>но возведение присутствует</t>
+  </si>
+  <si>
+    <t>в 5м номере нет кода</t>
+  </si>
+  <si>
+    <t>3й защищен</t>
+  </si>
+  <si>
+    <t>Half-term</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Total score</t>
+  </si>
+  <si>
+    <t>переписаны верно все номера</t>
   </si>
 </sst>
 </file>
@@ -83,7 +212,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -125,13 +254,43 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -140,13 +299,28 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -158,7 +332,22 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -173,7 +362,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -185,10 +374,34 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -200,13 +413,117 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -215,139 +532,8 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -359,18 +545,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -380,16 +560,618 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -665,379 +1447,1085 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="B2" s="6">
+        <v>4</v>
+      </c>
+      <c r="C2" s="18">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="6">
+        <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+2.5*I2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="K2" s="22">
+        <f>IF(J2&gt;57.5/5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="22">
+        <f>MAX(_xlfn.FLOOR.MATH((J2-5)/10),2)</f>
+        <v>2</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="8">
+        <v>-2</v>
+      </c>
+      <c r="C3" s="19">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J25" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+2.5*I3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="K3" s="22">
+        <f t="shared" ref="K3:K25" si="1">IF(J3&gt;57.5/5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="22">
+        <f t="shared" ref="L3:L25" si="2">MAX(_xlfn.FLOOR.MATH((J3-5)/10),2)</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+    <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-1</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="K4" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+    <row r="5" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="K5" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+    <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="16">
+        <v>5</v>
+      </c>
+      <c r="C6" s="20">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K6" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M6" s="23"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+    <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="19">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K7" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M7" s="23"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+    <row r="8" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="19">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="K8" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M8" s="23"/>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+    <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" s="19">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="K9" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+    <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8">
+        <v>5</v>
+      </c>
+      <c r="C10" s="19">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K10" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+    <row r="11" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8">
+        <v>5</v>
+      </c>
+      <c r="C11" s="19">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K11" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+    <row r="12" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8">
+        <v>-2</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-1</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+    <row r="13" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="8">
+        <v>4</v>
+      </c>
+      <c r="C13" s="19">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K13" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+    <row r="14" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="8">
+        <v>-2</v>
+      </c>
+      <c r="C14" s="19">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-1</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K14" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M14" s="23"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+    <row r="15" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="16">
+        <v>5</v>
+      </c>
+      <c r="C15" s="20">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>5</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="K15" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+    <row r="16" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="20">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K16" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M16" s="23"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+    <row r="17" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="8">
+        <v>5</v>
+      </c>
+      <c r="C17" s="19">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="14"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K17" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+    <row r="18" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5</v>
+      </c>
+      <c r="C18" s="19">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K18" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+    <row r="19" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="8">
+        <v>5</v>
+      </c>
+      <c r="C19" s="19">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K19" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+    <row r="20" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="8">
+        <v>5</v>
+      </c>
+      <c r="C20" s="19">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K20" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+    <row r="21" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="8">
+        <v>3</v>
+      </c>
+      <c r="C21" s="19">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K21" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+    <row r="22" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="8">
+        <v>4</v>
+      </c>
+      <c r="C22" s="19">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="14"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="K22" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+    <row r="23" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="8">
+        <v>4</v>
+      </c>
+      <c r="C23" s="19">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="14"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K23" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+    <row r="24" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="8">
+        <v>5</v>
+      </c>
+      <c r="C24" s="19">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K24" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L24" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M24" s="23"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="17"/>
+    <row r="25" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="9">
+        <v>5</v>
+      </c>
+      <c r="C25" s="21">
+        <v>5</v>
+      </c>
+      <c r="D25" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K25" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L25" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M2:M3 M6:M8 M19 M16 M14 M24:M25 M10:M12">
+    <cfRule type="cellIs" dxfId="58" priority="82" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="83" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="84" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="85" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C25">
+    <cfRule type="cellIs" dxfId="54" priority="76" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="77" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="78" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="79" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="80" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="81" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="cellIs" dxfId="48" priority="72" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="73" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="74" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="75" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20">
+    <cfRule type="cellIs" dxfId="44" priority="68" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="69" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="70" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="71" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18">
+    <cfRule type="cellIs" dxfId="40" priority="64" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="65" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="66" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="67" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="cellIs" dxfId="36" priority="60" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="61" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="62" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="63" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22">
+    <cfRule type="cellIs" dxfId="32" priority="48" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="49" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="50" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="51" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="41" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="43" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23">
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="37" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="38" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="39" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21">
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K25">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L25">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B207D7-0274-459F-A68C-355DE38F643B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лаба1 задания" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>ФИО</t>
   </si>
@@ -129,27 +127,6 @@
   </si>
   <si>
     <t>Щербаков Михаил Михайлович</t>
-  </si>
-  <si>
-    <t>Задание</t>
-  </si>
-  <si>
-    <t>Задание 1_14 и 1_15 без использования кортежей</t>
-  </si>
-  <si>
-    <t>Задание 1_14 и 1_15 без использования временной переменной</t>
-  </si>
-  <si>
-    <t>Задание 1_8 и 1_9 без вложенных циклов</t>
-  </si>
-  <si>
-    <t>Задание 1_9 без вызова функции факториала и степени</t>
-  </si>
-  <si>
-    <t>2_1 DRY + 3_9 без math.pow</t>
-  </si>
-  <si>
-    <t>Задание 1_14 без использования временной переменной</t>
   </si>
   <si>
     <t>Примечания к кр-1</t>
@@ -209,7 +186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,7 +212,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -461,15 +438,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -577,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -598,17 +566,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1479,32 +1446,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="66.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -1526,29 +1493,31 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="6">
         <v>4</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="18">
         <v>4</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7">
+        <v>-1</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -1556,28 +1525,28 @@
       <c r="I2" s="11"/>
       <c r="J2" s="6">
         <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+2.5*I2,0)</f>
-        <v>12</v>
-      </c>
-      <c r="K2" s="23">
+        <v>11</v>
+      </c>
+      <c r="K2" s="22">
         <f>IF(J2&gt;57.5/5,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="23">
+        <v>0</v>
+      </c>
+      <c r="L2" s="22">
         <f>MAX(_xlfn.FLOOR.MATH((J2-5)/10),2)</f>
         <v>2</v>
       </c>
-      <c r="M2" s="23" t="s">
-        <v>52</v>
+      <c r="M2" s="22" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="8">
         <v>-2</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>3</v>
       </c>
       <c r="D3" s="1">
@@ -1592,19 +1561,19 @@
         <f t="shared" ref="J3:J25" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+2.5*I3,0)</f>
         <v>4</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="22">
         <f t="shared" ref="K3:K25" si="1">IF(J3&gt;57.5/5,1,0)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="22">
         <f t="shared" ref="L3:L25" si="2">MAX(_xlfn.FLOOR.MATH((J3-5)/10),2)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="24" t="s">
-        <v>50</v>
+      <c r="M3" s="23" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>11</v>
       </c>
@@ -1614,7 +1583,9 @@
       <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>-1</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1622,21 +1593,21 @@
       <c r="I4" s="12"/>
       <c r="J4" s="6">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K4" s="23">
+        <v>11</v>
+      </c>
+      <c r="K4" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L4" s="23">
+        <v>0</v>
+      </c>
+      <c r="L4" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M4" s="20" t="s">
-        <v>57</v>
+      <c r="M4" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -1649,35 +1620,37 @@
       <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="12"/>
       <c r="J5" s="6">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="K5" s="23">
+        <v>23</v>
+      </c>
+      <c r="K5" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M5" s="20" t="s">
-        <v>57</v>
+      <c r="M5" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="17">
-        <v>5</v>
-      </c>
-      <c r="C6" s="21">
+      <c r="B6" s="16">
+        <v>5</v>
+      </c>
+      <c r="C6" s="20">
         <v>5</v>
       </c>
       <c r="D6" s="1">
@@ -1692,24 +1665,24 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M6" s="24"/>
+      <c r="M6" s="23"/>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="8">
         <v>5</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>5</v>
       </c>
       <c r="D7" s="1">
@@ -1724,24 +1697,24 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M7" s="24"/>
+      <c r="M7" s="23"/>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>5</v>
       </c>
       <c r="D8" s="1">
@@ -1756,30 +1729,32 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M8" s="24"/>
+      <c r="M8" s="23"/>
       <c r="N8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>4</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>-1</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1787,28 +1762,28 @@
       <c r="I9" s="12"/>
       <c r="J9" s="6">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K9" s="23">
+        <v>11</v>
+      </c>
+      <c r="K9" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L9" s="23">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M9" s="20" t="s">
-        <v>47</v>
+      <c r="M9" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>4</v>
       </c>
       <c r="D10" s="1">
@@ -1823,26 +1798,26 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M10" s="24" t="s">
-        <v>45</v>
+      <c r="M10" s="23" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="8">
         <v>5</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>5</v>
       </c>
       <c r="D11" s="1">
@@ -1857,25 +1832,29 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M11" s="24"/>
+      <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="20">
+      <c r="B12" s="8">
+        <v>-2</v>
+      </c>
+      <c r="C12" s="19">
         <v>0</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>-1</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1885,30 +1864,30 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M12" s="24" t="s">
-        <v>41</v>
+      <c r="M12" s="23" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="8">
         <v>4</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>4</v>
       </c>
       <c r="D13" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1917,29 +1896,33 @@
       <c r="I13" s="12"/>
       <c r="J13" s="6">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="K13" s="23">
+        <v>16</v>
+      </c>
+      <c r="K13" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="23">
+        <v>1</v>
+      </c>
+      <c r="L13" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M13" s="20" t="s">
-        <v>57</v>
+      <c r="M13" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="20">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1"/>
+      <c r="B14" s="8">
+        <v>-2</v>
+      </c>
+      <c r="C14" s="19">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-1</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1947,26 +1930,26 @@
       <c r="I14" s="12"/>
       <c r="J14" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K14" s="23">
+        <v>7</v>
+      </c>
+      <c r="K14" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M14" s="24"/>
+      <c r="M14" s="23"/>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="17">
-        <v>5</v>
-      </c>
-      <c r="C15" s="21">
+      <c r="B15" s="16">
+        <v>5</v>
+      </c>
+      <c r="C15" s="20">
         <v>3</v>
       </c>
       <c r="D15" s="1">
@@ -1977,34 +1960,34 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="12"/>
       <c r="J15" s="6">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="K15" s="23">
+        <v>26</v>
+      </c>
+      <c r="K15" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M15" s="20" t="s">
-        <v>43</v>
+      <c r="M15" s="19" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="17">
-        <v>5</v>
-      </c>
-      <c r="C16" s="21">
+      <c r="B16" s="16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="20">
         <v>5</v>
       </c>
       <c r="D16" s="1">
@@ -2019,24 +2002,24 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M16" s="24"/>
+      <c r="M16" s="23"/>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="8">
         <v>5</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <v>4</v>
       </c>
       <c r="D17" s="1">
@@ -2051,26 +2034,26 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M17" s="20" t="s">
-        <v>57</v>
+      <c r="M17" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="8">
         <v>5</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <v>4</v>
       </c>
       <c r="D18" s="1">
@@ -2085,26 +2068,26 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M18" s="20" t="s">
-        <v>42</v>
+      <c r="M18" s="19" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="8">
         <v>5</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <v>4</v>
       </c>
       <c r="D19" s="1">
@@ -2119,32 +2102,34 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M19" s="24" t="s">
-        <v>44</v>
+      <c r="M19" s="23" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="8">
         <v>5</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <v>3</v>
       </c>
       <c r="D20" s="1">
         <v>5</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -2153,27 +2138,31 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M20" s="20" t="s">
-        <v>43</v>
+      <c r="M20" s="19" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="20">
+      <c r="B21" s="8">
+        <v>3</v>
+      </c>
+      <c r="C21" s="19">
         <v>2</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -2181,28 +2170,28 @@
       <c r="I21" s="12"/>
       <c r="J21" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K21" s="23">
+        <v>12</v>
+      </c>
+      <c r="K21" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="23">
+        <v>1</v>
+      </c>
+      <c r="L21" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M21" s="20" t="s">
-        <v>49</v>
+      <c r="M21" s="19" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="8">
         <v>4</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <v>4</v>
       </c>
       <c r="D22" s="1">
@@ -2217,26 +2206,26 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M22" s="20" t="s">
-        <v>46</v>
+      <c r="M22" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="8">
         <v>4</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <v>3</v>
       </c>
       <c r="D23" s="1">
@@ -2251,26 +2240,26 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M23" s="20" t="s">
-        <v>48</v>
+      <c r="M23" s="19" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="8">
         <v>5</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="19">
         <v>5</v>
       </c>
       <c r="D24" s="1">
@@ -2285,27 +2274,29 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L24" s="23">
+      <c r="L24" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M24" s="24"/>
+      <c r="M24" s="23"/>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="9">
         <v>5</v>
       </c>
-      <c r="C25" s="22">
-        <v>5</v>
-      </c>
-      <c r="D25" s="10"/>
+      <c r="C25" s="21">
+        <v>5</v>
+      </c>
+      <c r="D25" s="10">
+        <v>-1</v>
+      </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -2313,18 +2304,18 @@
       <c r="I25" s="13"/>
       <c r="J25" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="K25" s="23">
+        <v>14</v>
+      </c>
+      <c r="K25" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M25" s="25" t="s">
-        <v>51</v>
+      <c r="M25" s="24" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2538,87 +2529,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,6 @@
     <t>в 5м номере нет кода</t>
   </si>
   <si>
-    <t>3й защищен</t>
-  </si>
-  <si>
     <t>Half-term</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>переписаны верно все номера</t>
+  </si>
+  <si>
+    <t>Примечания к кр-2</t>
   </si>
 </sst>
 </file>
@@ -212,7 +212,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -541,11 +541,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -576,6 +634,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1447,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,7 +1552,7 @@
     <col min="13" max="13" width="66.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1493,19 +1581,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="M1" s="17" t="s">
         <v>33</v>
       </c>
+      <c r="N1" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
@@ -1538,8 +1634,14 @@
       <c r="M2" s="22" t="s">
         <v>45</v>
       </c>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="29"/>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
@@ -1572,8 +1674,14 @@
       <c r="M3" s="23" t="s">
         <v>43</v>
       </c>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="32"/>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>11</v>
       </c>
@@ -1586,7 +1694,9 @@
       <c r="D4" s="1">
         <v>-1</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1604,10 +1714,16 @@
         <v>2</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="N4" s="30"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="32"/>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -1623,13 +1739,15 @@
       <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="12"/>
       <c r="J5" s="6">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K5" s="22">
         <f t="shared" si="1"/>
@@ -1640,10 +1758,16 @@
         <v>2</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="N5" s="30"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="32"/>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
@@ -1656,14 +1780,18 @@
       <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="12"/>
       <c r="J6" s="6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K6" s="22">
         <f t="shared" si="1"/>
@@ -1674,8 +1802,14 @@
         <v>2</v>
       </c>
       <c r="M6" s="23"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="32"/>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
@@ -1706,8 +1840,14 @@
         <v>2</v>
       </c>
       <c r="M7" s="23"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="32"/>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
@@ -1738,11 +1878,14 @@
         <v>2</v>
       </c>
       <c r="M8" s="23"/>
-      <c r="N8" t="s">
-        <v>46</v>
-      </c>
+      <c r="N8" s="30"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>16</v>
       </c>
@@ -1775,8 +1918,14 @@
       <c r="M9" s="19" t="s">
         <v>40</v>
       </c>
+      <c r="N9" s="30"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="32"/>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>17</v>
       </c>
@@ -1809,8 +1958,14 @@
       <c r="M10" s="23" t="s">
         <v>38</v>
       </c>
+      <c r="N10" s="30"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
@@ -1841,8 +1996,14 @@
         <v>2</v>
       </c>
       <c r="M11" s="23"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
@@ -1875,8 +2036,14 @@
       <c r="M12" s="23" t="s">
         <v>34</v>
       </c>
+      <c r="N12" s="30"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>20</v>
       </c>
@@ -1907,10 +2074,16 @@
         <v>2</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>21</v>
       </c>
@@ -1941,8 +2114,14 @@
         <v>2</v>
       </c>
       <c r="M14" s="23"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>22</v>
       </c>
@@ -1979,8 +2158,14 @@
       <c r="M15" s="19" t="s">
         <v>36</v>
       </c>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="32"/>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>23</v>
       </c>
@@ -2011,8 +2196,14 @@
         <v>2</v>
       </c>
       <c r="M16" s="23"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="32"/>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>24</v>
       </c>
@@ -2043,10 +2234,16 @@
         <v>2</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="32"/>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>25</v>
       </c>
@@ -2059,14 +2256,18 @@
       <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="12"/>
       <c r="J18" s="6">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K18" s="22">
         <f t="shared" si="1"/>
@@ -2079,8 +2280,14 @@
       <c r="M18" s="19" t="s">
         <v>35</v>
       </c>
+      <c r="N18" s="30"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="32"/>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>26</v>
       </c>
@@ -2113,8 +2320,14 @@
       <c r="M19" s="23" t="s">
         <v>37</v>
       </c>
+      <c r="N19" s="30"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="32"/>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>27</v>
       </c>
@@ -2149,8 +2362,14 @@
       <c r="M20" s="19" t="s">
         <v>36</v>
       </c>
+      <c r="N20" s="30"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="32"/>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>28</v>
       </c>
@@ -2183,8 +2402,14 @@
       <c r="M21" s="19" t="s">
         <v>42</v>
       </c>
+      <c r="N21" s="30"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="32"/>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>29</v>
       </c>
@@ -2217,8 +2442,14 @@
       <c r="M22" s="19" t="s">
         <v>39</v>
       </c>
+      <c r="N22" s="30"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="32"/>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>30</v>
       </c>
@@ -2232,13 +2463,15 @@
         <v>5</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="12"/>
       <c r="J23" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K23" s="22">
         <f t="shared" si="1"/>
@@ -2251,8 +2484,14 @@
       <c r="M23" s="19" t="s">
         <v>41</v>
       </c>
+      <c r="N23" s="30"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="32"/>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>31</v>
       </c>
@@ -2283,8 +2522,14 @@
         <v>2</v>
       </c>
       <c r="M24" s="23"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="32"/>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>32</v>
       </c>
@@ -2317,8 +2562,41 @@
       <c r="M25" s="24" t="s">
         <v>44</v>
       </c>
+      <c r="N25" s="33"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="35"/>
     </row>
   </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="N11:S11"/>
+    <mergeCell ref="N12:S12"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N6:S6"/>
+  </mergeCells>
   <conditionalFormatting sqref="M2:M3 M6:M8 M19 M16 M14 M24:M25 M10:M12">
     <cfRule type="cellIs" dxfId="58" priority="82" operator="equal">
       <formula>2</formula>

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2043A8A7-4557-490A-8F11-C3D44276A6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>ФИО</t>
   </si>
@@ -48,16 +58,136 @@
     <t>КР-3</t>
   </si>
   <si>
-    <t>Итог</t>
-  </si>
-  <si>
-    <t>Оценка</t>
+    <t>Абраменкова Карина Павловна</t>
+  </si>
+  <si>
+    <t>Агапова Екатерина Олеговна</t>
+  </si>
+  <si>
+    <t>Бычкова Елена Романовна</t>
+  </si>
+  <si>
+    <t>Виноградов Владимир Владимирович</t>
+  </si>
+  <si>
+    <t>Воробьев Иван Александрович</t>
+  </si>
+  <si>
+    <t>Глазков Илья Максимович</t>
+  </si>
+  <si>
+    <t>Губеева София Юрьевна</t>
+  </si>
+  <si>
+    <t>Заднипрянец Екатерина Владиславовна</t>
+  </si>
+  <si>
+    <t>Ибрамхалилов Роман Ламетович</t>
+  </si>
+  <si>
+    <t>Капелина Анна Ивановна</t>
+  </si>
+  <si>
+    <t>Карасев Арсений Андреевич</t>
+  </si>
+  <si>
+    <t>Куулар Амина Сергеевна</t>
+  </si>
+  <si>
+    <t>Лищенко Александра Вадимовна</t>
+  </si>
+  <si>
+    <t>Лунин Владимир Анатольевич</t>
+  </si>
+  <si>
+    <t>Оганезов Михаил Алексеевич</t>
+  </si>
+  <si>
+    <t>Попова Полина Владиславовна</t>
+  </si>
+  <si>
+    <t>Родина Ксения Витальевна</t>
+  </si>
+  <si>
+    <t>Словогородская Елизавета Вячеславовна</t>
+  </si>
+  <si>
+    <t>Стоценко Александр Сергеевич</t>
+  </si>
+  <si>
+    <t>Таранов Артём Игоревич</t>
+  </si>
+  <si>
+    <t>Титова Надежда Алексеевна</t>
+  </si>
+  <si>
+    <t>Хрищанович Полина Чеславовна</t>
+  </si>
+  <si>
+    <t>Чиченкова Карина Вячеславовна</t>
+  </si>
+  <si>
+    <t>Щербаков Михаил Михайлович</t>
+  </si>
+  <si>
+    <t>Примечания к кр-1</t>
+  </si>
+  <si>
+    <t>неявка</t>
+  </si>
+  <si>
+    <t>ответ неверный во 2м номере</t>
+  </si>
+  <si>
+    <t>ответы неверные во 2м и 4м номерах</t>
+  </si>
+  <si>
+    <t>недостаточная точность в 1м номере</t>
+  </si>
+  <si>
+    <t>5й номер отсутствует</t>
+  </si>
+  <si>
+    <t>ответ неверный в 4м номере (+опечатка в 5м)</t>
+  </si>
+  <si>
+    <t>ответ неверный во 1м номере</t>
+  </si>
+  <si>
+    <t>ответ неверный во 2м номере; 5й отсутствует</t>
+  </si>
+  <si>
+    <t>ответ неверный во 1м номере; 2й и 5й номера отсутствуют</t>
+  </si>
+  <si>
+    <t>2й и 5й номера отсутствуют</t>
+  </si>
+  <si>
+    <t>но возведение присутствует</t>
+  </si>
+  <si>
+    <t>в 5м номере нет кода</t>
+  </si>
+  <si>
+    <t>Half-term</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Total score</t>
+  </si>
+  <si>
+    <t>переписаны верно все номера</t>
+  </si>
+  <si>
+    <t>Примечания к кр-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,15 +205,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -125,13 +261,43 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -140,13 +306,28 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -158,7 +339,22 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -173,7 +369,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -185,10 +381,34 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -200,13 +420,117 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -215,13 +539,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -230,25 +552,23 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -272,81 +592,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -359,37 +610,713 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -664,380 +1591,1336 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="B2" s="6">
+        <v>4</v>
+      </c>
+      <c r="C2" s="17">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7">
+        <v>-2</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="6">
+        <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+2.5*I2,0)</f>
         <v>10</v>
       </c>
+      <c r="K2" s="21">
+        <f>IF(J2&gt;57.5/5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="21">
+        <f>MAX(_xlfn.FLOOR.MATH((J2-5)/10),2)</f>
+        <v>2</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="41"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8">
+        <v>-2</v>
+      </c>
+      <c r="C3" s="18">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-2</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J25" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+2.5*I3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="K3" s="21">
+        <f t="shared" ref="K3:K25" si="1">IF(J3&gt;57.5/5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="21">
+        <f t="shared" ref="L3:L25" si="2">MAX(_xlfn.FLOOR.MATH((J3-5)/10),2)</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="35"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="37"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="K4" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="35"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="37"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+    <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="K5" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="37"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="15">
+        <v>5</v>
+      </c>
+      <c r="C6" s="19">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="K6" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="37"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K7" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M7" s="22"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="37"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="18">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="6">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="K8" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M8" s="22"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="37"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" s="18">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-2</v>
+      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K9" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="35"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="37"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8">
+        <v>5</v>
+      </c>
+      <c r="C10" s="18">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K10" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="35"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="37"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8">
+        <v>5</v>
+      </c>
+      <c r="C11" s="18">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="K11" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M11" s="22"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="37"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
+    <row r="12" spans="1:19" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="26">
+        <v>-3</v>
+      </c>
+      <c r="C12" s="27">
+        <v>0</v>
+      </c>
+      <c r="D12" s="28">
+        <v>-2</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28">
+        <v>0</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="31">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="42"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="44"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="8">
+        <v>4</v>
+      </c>
+      <c r="C13" s="18">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="K13" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="35"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="37"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="8">
+        <v>-2</v>
+      </c>
+      <c r="C14" s="18">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-1</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="K14" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M14" s="22"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="37"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14"/>
+    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="19">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="K15" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="35"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="37"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="15">
+        <v>5</v>
+      </c>
+      <c r="C16" s="19">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="K16" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M16" s="22"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="37"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="8">
+        <v>5</v>
+      </c>
+      <c r="C17" s="18">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="14"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="K17" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="35"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="37"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5</v>
+      </c>
+      <c r="C18" s="18">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="K18" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="35"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="37"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="8">
+        <v>5</v>
+      </c>
+      <c r="C19" s="18">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="K19" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" s="35"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="37"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="8">
+        <v>5</v>
+      </c>
+      <c r="C20" s="18">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="K20" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="35"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="8">
+        <v>3</v>
+      </c>
+      <c r="C21" s="18">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K21" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="35"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="37"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="8">
+        <v>4</v>
+      </c>
+      <c r="C22" s="18">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="14"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="K22" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="35"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="8">
+        <v>4</v>
+      </c>
+      <c r="C23" s="18">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="14"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K23" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="35"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="37"/>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="8">
+        <v>5</v>
+      </c>
+      <c r="C24" s="18">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="K24" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L24" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M24" s="22"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="37"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="17"/>
+    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="34">
+        <v>5</v>
+      </c>
+      <c r="C25" s="20">
+        <v>5</v>
+      </c>
+      <c r="D25" s="9">
+        <v>-2</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9">
+        <v>5</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="K25" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L25" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="45"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="47"/>
     </row>
   </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="N11:S11"/>
+    <mergeCell ref="N12:S12"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:S5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M2:M3 M6:M8 M19 M16 M14 M24:M25 M10:M12">
+    <cfRule type="cellIs" dxfId="61" priority="85" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="86" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="87" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="88" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C25">
+    <cfRule type="cellIs" dxfId="57" priority="79" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="80" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="81" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="82" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="83" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="84" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="cellIs" dxfId="51" priority="75" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="76" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="77" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="78" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20">
+    <cfRule type="cellIs" dxfId="47" priority="71" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="72" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="73" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="74" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18">
+    <cfRule type="cellIs" dxfId="43" priority="67" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="68" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="69" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="70" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="cellIs" dxfId="39" priority="63" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="64" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22">
+    <cfRule type="cellIs" dxfId="35" priority="51" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="52" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="53" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="54" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="44" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="45" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="46" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="40" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="41" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="42" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K25">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L25">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F25">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>ФИО</t>
   </si>
@@ -204,12 +204,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="28">
@@ -603,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -613,7 +625,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -634,6 +645,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -646,13 +676,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -664,11 +694,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1538,7 +1599,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,7 +1620,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -1583,106 +1644,110 @@
       <c r="J1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="6">
         <v>4</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>4</v>
       </c>
       <c r="D2" s="7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="11"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="6">
-        <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+2.5*I2,0)</f>
-        <v>11</v>
-      </c>
-      <c r="K2" s="22">
+        <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+3.5*I2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="K2" s="21">
         <f>IF(J2&gt;57.5/5,1,0)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="22">
-        <f>MAX(_xlfn.FLOOR.MATH((J2-5)/10),2)</f>
+      <c r="L2" s="21">
+        <f>MAX(_xlfn.FLOOR.MATH((J2-10)/10),2)</f>
         <v>2</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="29"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="8">
         <v>-2</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="12"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="6">
-        <f t="shared" ref="J3:J25" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+2.5*I3,0)</f>
-        <v>4</v>
-      </c>
-      <c r="K3" s="22">
+        <f t="shared" ref="J3:J25" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+3.5*I3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="K3" s="21">
         <f t="shared" ref="K3:K25" si="1">IF(J3&gt;57.5/5,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="22">
-        <f t="shared" ref="L3:L25" si="2">MAX(_xlfn.FLOOR.MATH((J3-5)/10),2)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="21">
+        <f t="shared" ref="L3:L25" si="2">MAX(_xlfn.FLOOR.MATH((J3-10)/10),2)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="32"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="35"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="8">
@@ -1697,34 +1762,36 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="12"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="6">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="K4" s="22">
+        <v>17</v>
+      </c>
+      <c r="K4" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="22">
+        <v>1</v>
+      </c>
+      <c r="L4" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="32"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="35"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="8">
@@ -1744,37 +1811,37 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="12"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="32"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="35"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16">
-        <v>5</v>
-      </c>
-      <c r="C6" s="20">
+      <c r="B6" s="15">
+        <v>5</v>
+      </c>
+      <c r="C6" s="19">
         <v>5</v>
       </c>
       <c r="D6" s="1">
@@ -1788,347 +1855,365 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="12"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="32"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="35"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="8">
         <v>5</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="12"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="6">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K7" s="22">
+        <v>30</v>
+      </c>
+      <c r="K7" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="32"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="35"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>5</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="12"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="6">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="K8" s="22">
+        <v>29</v>
+      </c>
+      <c r="K8" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="32"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="35"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="12"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="6">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="K9" s="22">
+        <v>16</v>
+      </c>
+      <c r="K9" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="22">
+        <v>1</v>
+      </c>
+      <c r="L9" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="30"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="32"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="35"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <v>4</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="12"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="6">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="K10" s="22">
+        <v>26</v>
+      </c>
+      <c r="K10" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="30"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="32"/>
+      <c r="N10" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="35"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="8">
         <v>5</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <v>5</v>
       </c>
       <c r="D11" s="1">
         <v>5</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="12"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="6">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K11" s="22">
+        <v>26</v>
+      </c>
+      <c r="K11" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="32"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="35"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:19" s="32" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="26">
+        <v>-3</v>
+      </c>
+      <c r="C12" s="27">
+        <v>0</v>
+      </c>
+      <c r="D12" s="28">
         <v>-2</v>
       </c>
-      <c r="C12" s="19">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28">
         <v>0</v>
       </c>
-      <c r="D12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="12"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M12" s="23" t="s">
+      <c r="M12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="30"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="32"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="42"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="8">
         <v>4</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <v>4</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="12"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="6">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="K13" s="22">
+        <v>26</v>
+      </c>
+      <c r="K13" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N13" s="30"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="32"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="35"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="8">
         <v>-2</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <v>5</v>
       </c>
       <c r="D14" s="1">
         <v>-1</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="12"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="6">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="K14" s="22">
+        <v>13</v>
+      </c>
+      <c r="K14" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="22">
+        <v>1</v>
+      </c>
+      <c r="L14" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="32"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="35"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="16">
-        <v>5</v>
-      </c>
-      <c r="C15" s="20">
+      <c r="B15" s="15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="19">
         <v>3</v>
       </c>
       <c r="D15" s="1">
@@ -2137,437 +2222,465 @@
       <c r="E15" s="1">
         <v>5</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
       <c r="G15" s="1">
         <v>5</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="12"/>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="11"/>
       <c r="J15" s="6">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="K15" s="22">
+        <v>41</v>
+      </c>
+      <c r="K15" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="35"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="15">
+        <v>5</v>
+      </c>
+      <c r="C16" s="19">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="K16" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M15" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15" s="30"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="32"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="35"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="16">
-        <v>5</v>
-      </c>
-      <c r="C16" s="20">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="6">
+    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="8">
+        <v>5</v>
+      </c>
+      <c r="C17" s="18">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="6">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K16" s="22">
+        <v>28</v>
+      </c>
+      <c r="K17" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L17" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="32"/>
+      <c r="M17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="33"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="8">
-        <v>5</v>
-      </c>
-      <c r="C17" s="19">
+    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5</v>
+      </c>
+      <c r="C18" s="18">
         <v>4</v>
       </c>
-      <c r="D17" s="1">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="6">
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="K18" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="35"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="8">
+        <v>5</v>
+      </c>
+      <c r="C19" s="18">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="K19" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="35"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="8">
+        <v>5</v>
+      </c>
+      <c r="C20" s="18">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="6">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="K20" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="35"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="8">
+        <v>3</v>
+      </c>
+      <c r="C21" s="18">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K21" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="35"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="8">
+        <v>4</v>
+      </c>
+      <c r="C22" s="18">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="K22" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="35"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="8">
+        <v>4</v>
+      </c>
+      <c r="C23" s="18">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K23" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L23" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M17" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" s="30"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="32"/>
+      <c r="M23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="35"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="8">
-        <v>5</v>
-      </c>
-      <c r="C18" s="19">
+    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="8">
+        <v>5</v>
+      </c>
+      <c r="C24" s="18">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
         <v>4</v>
       </c>
-      <c r="D18" s="1">
-        <v>5</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>5</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="6">
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="6">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="K18" s="22">
+        <v>32</v>
+      </c>
+      <c r="K24" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L24" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M18" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N18" s="30"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="32"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="35"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="8">
-        <v>5</v>
-      </c>
-      <c r="C19" s="19">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="6">
+    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="46">
+        <v>5</v>
+      </c>
+      <c r="C25" s="20">
+        <v>5</v>
+      </c>
+      <c r="D25" s="9">
+        <v>-2</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9">
+        <v>5</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="6">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="K19" s="22">
+        <v>23</v>
+      </c>
+      <c r="K25" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L25" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M19" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="N19" s="30"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="32"/>
-    </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="8">
-        <v>5</v>
-      </c>
-      <c r="C20" s="19">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="K20" s="22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L20" s="22">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="N20" s="30"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="32"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="8">
-        <v>3</v>
-      </c>
-      <c r="C21" s="19">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K21" s="22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L21" s="22">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="30"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="32"/>
-    </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="8">
-        <v>4</v>
-      </c>
-      <c r="C22" s="19">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1">
-        <v>5</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="6">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="K22" s="22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L22" s="22">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="N22" s="30"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="32"/>
-    </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="8">
-        <v>4</v>
-      </c>
-      <c r="C23" s="19">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1">
-        <v>5</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1">
-        <v>2</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="6">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="K23" s="22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L23" s="22">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="N23" s="30"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="32"/>
-    </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="8">
-        <v>5</v>
-      </c>
-      <c r="C24" s="19">
-        <v>5</v>
-      </c>
-      <c r="D24" s="1">
-        <v>5</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K24" s="22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L24" s="22">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M24" s="23"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="32"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="9">
-        <v>5</v>
-      </c>
-      <c r="C25" s="21">
-        <v>5</v>
-      </c>
-      <c r="D25" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="K25" s="22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L25" s="22">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M25" s="24" t="s">
+      <c r="M25" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="N25" s="33"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="35"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -2578,11 +2691,6 @@
     <mergeCell ref="N22:S22"/>
     <mergeCell ref="N23:S23"/>
     <mergeCell ref="N24:S24"/>
-    <mergeCell ref="N13:S13"/>
-    <mergeCell ref="N14:S14"/>
-    <mergeCell ref="N15:S15"/>
-    <mergeCell ref="N16:S16"/>
-    <mergeCell ref="N17:S17"/>
     <mergeCell ref="N18:S18"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="N8:S8"/>
@@ -2590,217 +2698,234 @@
     <mergeCell ref="N10:S10"/>
     <mergeCell ref="N11:S11"/>
     <mergeCell ref="N12:S12"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="N6:S6"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="N3:S3"/>
     <mergeCell ref="N4:S4"/>
     <mergeCell ref="N5:S5"/>
-    <mergeCell ref="N6:S6"/>
   </mergeCells>
   <conditionalFormatting sqref="M2:M3 M6:M8 M19 M16 M14 M24:M25 M10:M12">
-    <cfRule type="cellIs" dxfId="58" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="85" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="86" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="87" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="88" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="cellIs" dxfId="54" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="81" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="82" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="83" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="84" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="48" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="75" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="76" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="77" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="78" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="cellIs" dxfId="44" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="71" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="72" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="73" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="74" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="cellIs" dxfId="40" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="67" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="68" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="69" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="70" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="36" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="63" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="64" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="cellIs" dxfId="32" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="51" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="52" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="53" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="54" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="44" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="45" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="46" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23">
-    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="40" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="41" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="42" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K25">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L25">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F25">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808A76C0-4BCC-43E6-88AF-A950BF38289D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>ФИО</t>
   </si>
@@ -186,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -655,6 +656,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -662,6 +673,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -676,25 +696,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1595,25 +1596,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="N24" sqref="N24:S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="66.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1653,16 +1654,16 @@
       <c r="M1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
@@ -1697,14 +1698,14 @@
       <c r="M2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="39"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="46"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -1739,14 +1740,14 @@
       <c r="M3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="35"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
@@ -1783,14 +1784,14 @@
       <c r="M4" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="35"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="39"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
@@ -1827,14 +1828,14 @@
       <c r="M5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="35"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="39"/>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
@@ -1869,14 +1870,14 @@
         <v>2</v>
       </c>
       <c r="M6" s="22"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="35"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="39"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
@@ -1909,14 +1910,14 @@
         <v>2</v>
       </c>
       <c r="M7" s="22"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="35"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="39"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1949,14 +1950,14 @@
         <v>2</v>
       </c>
       <c r="M8" s="22"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="35"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="39"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -1991,14 +1992,14 @@
       <c r="M9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="35"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="39"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
@@ -2033,16 +2034,16 @@
       <c r="M10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="33" t="s">
+      <c r="N10" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="35"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="39"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
@@ -2075,14 +2076,14 @@
         <v>2</v>
       </c>
       <c r="M11" s="22"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="35"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="39"/>
     </row>
-    <row r="12" spans="1:19" s="32" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="32" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
         <v>19</v>
       </c>
@@ -2124,7 +2125,7 @@
       <c r="R12" s="41"/>
       <c r="S12" s="42"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
@@ -2159,14 +2160,14 @@
       <c r="M13" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="35"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="39"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
@@ -2199,14 +2200,14 @@
         <v>2</v>
       </c>
       <c r="M14" s="22"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="35"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="39"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>22</v>
       </c>
@@ -2247,14 +2248,14 @@
       <c r="M15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="33"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="35"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="39"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
@@ -2287,14 +2288,14 @@
         <v>2</v>
       </c>
       <c r="M16" s="22"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="35"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="39"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
@@ -2329,14 +2330,14 @@
       <c r="M17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N17" s="33"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="35"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="39"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -2373,14 +2374,14 @@
       <c r="M18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="33"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="35"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="39"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>26</v>
       </c>
@@ -2417,14 +2418,14 @@
       <c r="M19" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N19" s="33"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="35"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="39"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>27</v>
       </c>
@@ -2461,14 +2462,14 @@
       <c r="M20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="N20" s="33"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="35"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="39"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>28</v>
       </c>
@@ -2503,14 +2504,14 @@
       <c r="M21" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="33"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="35"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="39"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>29</v>
       </c>
@@ -2527,14 +2528,14 @@
         <v>-1</v>
       </c>
       <c r="F22" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="11"/>
       <c r="J22" s="6">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K22" s="21">
         <f t="shared" si="1"/>
@@ -2547,14 +2548,16 @@
       <c r="M22" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="N22" s="33"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="35"/>
+      <c r="N22" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="39"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>30</v>
       </c>
@@ -2571,14 +2574,14 @@
         <v>-1</v>
       </c>
       <c r="F23" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="11"/>
       <c r="J23" s="6">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K23" s="21">
         <f t="shared" si="1"/>
@@ -2591,14 +2594,16 @@
       <c r="M23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="33"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="35"/>
+      <c r="N23" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>31</v>
       </c>
@@ -2633,18 +2638,18 @@
         <v>2</v>
       </c>
       <c r="M24" s="22"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="35"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="39"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="33">
         <v>5</v>
       </c>
       <c r="C25" s="20">
@@ -2675,22 +2680,21 @@
       <c r="M25" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="N25" s="43"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="45"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:S5"/>
     <mergeCell ref="N18:S18"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="N8:S8"/>
@@ -2703,12 +2707,13 @@
     <mergeCell ref="N15:S15"/>
     <mergeCell ref="N16:S16"/>
     <mergeCell ref="N17:S17"/>
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N24:S24"/>
   </mergeCells>
   <conditionalFormatting sqref="M2:M3 M6:M8 M19 M16 M14 M24:M25 M10:M12">
     <cfRule type="cellIs" dxfId="61" priority="85" operator="equal">

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808A76C0-4BCC-43E6-88AF-A950BF38289D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>ФИО</t>
   </si>
@@ -187,7 +186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -723,6 +722,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -753,6 +762,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -763,6 +792,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -888,46 +927,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1596,25 +1595,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24:S24"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="66.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1663,7 +1662,7 @@
       <c r="R1" s="43"/>
       <c r="S1" s="43"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
@@ -1705,7 +1704,7 @@
       <c r="R2" s="45"/>
       <c r="S2" s="46"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -1734,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="21">
-        <f t="shared" ref="L3:L25" si="2">MAX(_xlfn.FLOOR.MATH((J3-10)/10),2)</f>
+        <f>MAX(_xlfn.FLOOR.MATH((J3-10)/10),2)</f>
         <v>2</v>
       </c>
       <c r="M3" s="22" t="s">
@@ -1747,7 +1746,7 @@
       <c r="R3" s="38"/>
       <c r="S3" s="39"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
@@ -1758,7 +1757,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1771,14 +1770,14 @@
       <c r="I4" s="11"/>
       <c r="J4" s="6">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K4" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L4" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L3:L25" si="2">MAX(_xlfn.FLOOR.MATH((J4-10)/10),2)</f>
         <v>2</v>
       </c>
       <c r="M4" s="18" t="s">
@@ -1791,7 +1790,7 @@
       <c r="R4" s="38"/>
       <c r="S4" s="39"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
@@ -1810,7 +1809,9 @@
       <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="11"/>
       <c r="J5" s="6">
@@ -1835,7 +1836,7 @@
       <c r="R5" s="38"/>
       <c r="S5" s="39"/>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
@@ -1858,7 +1859,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="11"/>
       <c r="J6" s="6">
-        <f t="shared" si="0"/>
+        <f>MAX(B6+2*C6+D6+E6+G6+H6+2*F6+3.5*I6,0)</f>
         <v>33</v>
       </c>
       <c r="K6" s="21">
@@ -1877,7 +1878,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="39"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
@@ -1890,7 +1891,9 @@
       <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>-1</v>
+      </c>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -1899,7 +1902,7 @@
       <c r="I7" s="11"/>
       <c r="J7" s="6">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" si="1"/>
@@ -1917,7 +1920,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="39"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1957,7 +1960,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="39"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -1999,7 +2002,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="39"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
@@ -2012,7 +2015,9 @@
       <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
       <c r="F10" s="1">
         <v>4</v>
       </c>
@@ -2020,8 +2025,8 @@
       <c r="H10" s="1"/>
       <c r="I10" s="11"/>
       <c r="J10" s="6">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f>MAX(B10+2*C10+D10+E10+G10+H10+2*F10+3.5*I10,0)</f>
+        <v>30</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="1"/>
@@ -2043,7 +2048,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="39"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
@@ -2064,7 +2069,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="11"/>
       <c r="J11" s="6">
-        <f t="shared" si="0"/>
+        <f>MAX(B11+2*C11+D11+E11+G11+H11+2*F11+3.5*I11,0)</f>
         <v>26</v>
       </c>
       <c r="K11" s="21">
@@ -2083,7 +2088,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="39"/>
     </row>
-    <row r="12" spans="1:19" s="32" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" s="32" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>19</v>
       </c>
@@ -2125,7 +2130,7 @@
       <c r="R12" s="41"/>
       <c r="S12" s="42"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
@@ -2167,7 +2172,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="39"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
@@ -2180,7 +2185,9 @@
       <c r="D14" s="1">
         <v>-1</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>-1</v>
+      </c>
       <c r="F14" s="1">
         <v>3</v>
       </c>
@@ -2189,7 +2196,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="6">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K14" s="21">
         <f t="shared" si="1"/>
@@ -2207,7 +2214,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="39"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>22</v>
       </c>
@@ -2215,7 +2222,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1">
         <v>5</v>
@@ -2235,7 +2242,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="6">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K15" s="21">
         <f t="shared" si="1"/>
@@ -2246,7 +2253,7 @@
         <v>3</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N15" s="37"/>
       <c r="O15" s="38"/>
@@ -2255,7 +2262,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="39"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
@@ -2295,7 +2302,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="39"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
@@ -2308,7 +2315,9 @@
       <c r="D17" s="1">
         <v>5</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>-1</v>
+      </c>
       <c r="F17" s="1">
         <v>5</v>
       </c>
@@ -2317,7 +2326,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="6">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17" s="21">
         <f t="shared" si="1"/>
@@ -2337,7 +2346,7 @@
       <c r="R17" s="38"/>
       <c r="S17" s="39"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -2381,7 +2390,7 @@
       <c r="R18" s="38"/>
       <c r="S18" s="39"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>26</v>
       </c>
@@ -2425,7 +2434,7 @@
       <c r="R19" s="38"/>
       <c r="S19" s="39"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>27</v>
       </c>
@@ -2469,7 +2478,7 @@
       <c r="R20" s="38"/>
       <c r="S20" s="39"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>28</v>
       </c>
@@ -2482,7 +2491,9 @@
       <c r="D21" s="1">
         <v>5</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
       <c r="F21" s="1">
         <v>2</v>
       </c>
@@ -2491,7 +2502,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="6">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K21" s="21">
         <f t="shared" si="1"/>
@@ -2511,7 +2522,7 @@
       <c r="R21" s="38"/>
       <c r="S21" s="39"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>29</v>
       </c>
@@ -2528,14 +2539,14 @@
         <v>-1</v>
       </c>
       <c r="F22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="11"/>
       <c r="J22" s="6">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K22" s="21">
         <f t="shared" si="1"/>
@@ -2548,16 +2559,14 @@
       <c r="M22" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="N22" s="37" t="s">
-        <v>49</v>
-      </c>
+      <c r="N22" s="37"/>
       <c r="O22" s="38"/>
       <c r="P22" s="38"/>
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
       <c r="S22" s="39"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>30</v>
       </c>
@@ -2574,14 +2583,14 @@
         <v>-1</v>
       </c>
       <c r="F23" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="11"/>
       <c r="J23" s="6">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K23" s="21">
         <f t="shared" si="1"/>
@@ -2594,16 +2603,14 @@
       <c r="M23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="37" t="s">
-        <v>49</v>
-      </c>
+      <c r="N23" s="37"/>
       <c r="O23" s="38"/>
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>31</v>
       </c>
@@ -2645,7 +2652,7 @@
       <c r="R24" s="38"/>
       <c r="S24" s="39"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>32</v>
       </c>
@@ -2716,221 +2723,221 @@
     <mergeCell ref="N24:S24"/>
   </mergeCells>
   <conditionalFormatting sqref="M2:M3 M6:M8 M19 M16 M14 M24:M25 M10:M12">
-    <cfRule type="cellIs" dxfId="61" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="89" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="90" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="91" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="92" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="cellIs" dxfId="57" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="84" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="85" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="86" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="87" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="88" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="51" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="79" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="80" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="81" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="82" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="cellIs" dxfId="47" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="75" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="76" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="77" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="78" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="cellIs" dxfId="43" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="71" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="72" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="73" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="74" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22">
+    <cfRule type="cellIs" dxfId="39" priority="55" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="56" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="57" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="58" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="cellIs" dxfId="35" priority="47" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="49" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="50" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23">
+    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="44" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="45" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="46" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21">
+    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="36" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="37" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="38" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K25">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L25">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F25">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="39" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M22">
-    <cfRule type="cellIs" dxfId="35" priority="51" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="52" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="53" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="54" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M9">
-    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="44" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="45" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="46" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M23">
-    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="40" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="41" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="42" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K25">
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L25">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M17">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F25">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
-      <formula>3</formula>
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3A5B37-7D44-4078-BCBC-63B9F89B79D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -186,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1595,25 +1596,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="66.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1662,7 +1663,7 @@
       <c r="R1" s="43"/>
       <c r="S1" s="43"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
@@ -1704,7 +1705,7 @@
       <c r="R2" s="45"/>
       <c r="S2" s="46"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -1746,7 +1747,7 @@
       <c r="R3" s="38"/>
       <c r="S3" s="39"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
@@ -1777,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="21">
-        <f t="shared" ref="L3:L25" si="2">MAX(_xlfn.FLOOR.MATH((J4-10)/10),2)</f>
+        <f t="shared" ref="L4:L25" si="2">MAX(_xlfn.FLOOR.MATH((J4-10)/10),2)</f>
         <v>2</v>
       </c>
       <c r="M4" s="18" t="s">
@@ -1790,7 +1791,7 @@
       <c r="R4" s="38"/>
       <c r="S4" s="39"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
@@ -1836,7 +1837,7 @@
       <c r="R5" s="38"/>
       <c r="S5" s="39"/>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
@@ -1878,7 +1879,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="39"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
@@ -1920,7 +1921,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="39"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1960,7 +1961,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="39"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -2002,7 +2003,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="39"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
@@ -2048,7 +2049,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="39"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
@@ -2088,7 +2089,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="39"/>
     </row>
-    <row r="12" spans="1:19" s="32" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="32" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
         <v>19</v>
       </c>
@@ -2130,7 +2131,7 @@
       <c r="R12" s="41"/>
       <c r="S12" s="42"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
@@ -2172,7 +2173,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="39"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
@@ -2214,7 +2215,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="39"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>22</v>
       </c>
@@ -2262,7 +2263,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="39"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
@@ -2275,7 +2276,9 @@
       <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>-1</v>
+      </c>
       <c r="F16" s="1">
         <v>4</v>
       </c>
@@ -2284,7 +2287,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="6">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16" s="21">
         <f t="shared" si="1"/>
@@ -2302,7 +2305,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="39"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
@@ -2321,7 +2324,9 @@
       <c r="F17" s="1">
         <v>5</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="11"/>
       <c r="J17" s="6">
@@ -2346,7 +2351,7 @@
       <c r="R17" s="38"/>
       <c r="S17" s="39"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -2365,7 +2370,9 @@
       <c r="F18" s="1">
         <v>5</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="11"/>
       <c r="J18" s="6">
@@ -2390,7 +2397,7 @@
       <c r="R18" s="38"/>
       <c r="S18" s="39"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>26</v>
       </c>
@@ -2434,7 +2441,7 @@
       <c r="R19" s="38"/>
       <c r="S19" s="39"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>27</v>
       </c>
@@ -2453,7 +2460,9 @@
       <c r="F20" s="1">
         <v>3</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="11"/>
       <c r="J20" s="6">
@@ -2478,7 +2487,7 @@
       <c r="R20" s="38"/>
       <c r="S20" s="39"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>28</v>
       </c>
@@ -2522,7 +2531,7 @@
       <c r="R21" s="38"/>
       <c r="S21" s="39"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>29</v>
       </c>
@@ -2566,7 +2575,7 @@
       <c r="R22" s="38"/>
       <c r="S22" s="39"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>30</v>
       </c>
@@ -2610,7 +2619,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>31</v>
       </c>
@@ -2629,7 +2638,9 @@
       <c r="F24" s="1">
         <v>4</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="11"/>
       <c r="J24" s="6">
@@ -2652,7 +2663,7 @@
       <c r="R24" s="38"/>
       <c r="S24" s="39"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>32</v>
       </c>

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -1,35 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3A5B37-7D44-4078-BCBC-63B9F89B79D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>ФИО</t>
   </si>
@@ -182,12 +172,21 @@
   </si>
   <si>
     <t>Примечания к кр-2</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>arr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -616,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -657,15 +656,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -673,15 +663,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -696,11 +677,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="65">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1596,25 +1630,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B30" sqref="B30:I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="66.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1654,16 +1688,16 @@
       <c r="M1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
@@ -1677,14 +1711,14 @@
         <v>-2</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="7">
+      <c r="F2" s="48">
         <v>0</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="10"/>
       <c r="J2" s="6">
-        <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+3.5*I2,0)</f>
+        <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+4*I2,0)</f>
         <v>10</v>
       </c>
       <c r="K2" s="21">
@@ -1698,36 +1732,38 @@
       <c r="M2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="46"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="40"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="8">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="18">
         <v>3</v>
       </c>
       <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
         <v>-2</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
+      <c r="F3" s="47">
         <v>5</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="6">
-        <f t="shared" ref="J3:J25" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+3.5*I3,0)</f>
-        <v>12</v>
+      <c r="J3" s="51">
+        <f t="shared" ref="J3:J25" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+4*I3,0)</f>
+        <v>20</v>
       </c>
       <c r="K3" s="21">
         <f t="shared" ref="K3:K25" si="1">IF(J3&gt;57.5/5,1,0)</f>
@@ -1740,14 +1776,14 @@
       <c r="M3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="39"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="36"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
@@ -1763,13 +1799,13 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="47">
         <v>3</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="6">
+      <c r="J4" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -1784,14 +1820,14 @@
       <c r="M4" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="39"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="36"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
@@ -1807,17 +1843,17 @@
       <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="47">
         <v>4</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="6">
+      <c r="J5" s="51">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K5" s="21">
         <f t="shared" si="1"/>
@@ -1830,14 +1866,14 @@
       <c r="M5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="37"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="39"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="36"/>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
@@ -1853,14 +1889,14 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="47">
         <v>4</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="6">
-        <f>MAX(B6+2*C6+D6+E6+G6+H6+2*F6+3.5*I6,0)</f>
+      <c r="J6" s="51">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="K6" s="21">
@@ -1872,14 +1908,14 @@
         <v>2</v>
       </c>
       <c r="M6" s="22"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="39"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="36"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
@@ -1893,17 +1929,17 @@
         <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="47">
         <v>5</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="6">
+      <c r="J7" s="51">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" si="1"/>
@@ -1914,14 +1950,14 @@
         <v>2</v>
       </c>
       <c r="M7" s="22"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="39"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="36"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1934,16 +1970,18 @@
       <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
+      <c r="E8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="F8" s="47">
         <v>5</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="6">
+      <c r="J8" s="51">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" si="1"/>
@@ -1954,14 +1992,14 @@
         <v>2</v>
       </c>
       <c r="M8" s="22"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="39"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="36"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -1975,13 +2013,13 @@
         <v>-2</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1">
+      <c r="F9" s="47">
         <v>3</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="6">
+      <c r="J9" s="51">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1996,14 +2034,14 @@
       <c r="M9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="39"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="36"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
@@ -2019,14 +2057,14 @@
       <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="47">
         <v>4</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="6">
-        <f>MAX(B10+2*C10+D10+E10+G10+H10+2*F10+3.5*I10,0)</f>
+      <c r="J10" s="51">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="K10" s="21">
@@ -2040,16 +2078,16 @@
       <c r="M10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="37" t="s">
+      <c r="N10" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="39"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="36"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
@@ -2063,14 +2101,14 @@
         <v>5</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1">
+      <c r="F11" s="47">
         <v>3</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="6">
-        <f>MAX(B11+2*C11+D11+E11+G11+H11+2*F11+3.5*I11,0)</f>
+      <c r="J11" s="51">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="K11" s="21">
@@ -2082,14 +2120,14 @@
         <v>2</v>
       </c>
       <c r="M11" s="22"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="39"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="36"/>
     </row>
-    <row r="12" spans="1:19" s="32" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" s="32" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>19</v>
       </c>
@@ -2103,13 +2141,13 @@
         <v>-2</v>
       </c>
       <c r="E12" s="28"/>
-      <c r="F12" s="28">
+      <c r="F12" s="50">
         <v>0</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="29"/>
-      <c r="J12" s="6">
+      <c r="J12" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2124,14 +2162,14 @@
       <c r="M12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="40"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="42"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="43"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
@@ -2145,13 +2183,13 @@
         <v>4</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1">
+      <c r="F13" s="47">
         <v>5</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="6">
+      <c r="J13" s="51">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -2166,14 +2204,14 @@
       <c r="M13" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N13" s="37"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="39"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="36"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
@@ -2189,13 +2227,13 @@
       <c r="E14" s="1">
         <v>-1</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="47">
         <v>3</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="6">
+      <c r="J14" s="51">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2208,14 +2246,14 @@
         <v>2</v>
       </c>
       <c r="M14" s="22"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="39"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="36"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>22</v>
       </c>
@@ -2231,7 +2269,7 @@
       <c r="E15" s="1">
         <v>5</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="47">
         <v>5</v>
       </c>
       <c r="G15" s="1">
@@ -2241,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="11"/>
-      <c r="J15" s="6">
+      <c r="J15" s="51">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -2256,14 +2294,14 @@
       <c r="M15" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N15" s="37"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="39"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="36"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
@@ -2277,17 +2315,19 @@
         <v>5</v>
       </c>
       <c r="E16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>4</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="F16" s="47">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="6">
+      <c r="J16" s="51">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K16" s="21">
         <f t="shared" si="1"/>
@@ -2298,14 +2338,14 @@
         <v>2</v>
       </c>
       <c r="M16" s="22"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="39"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="36"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
@@ -2321,7 +2361,7 @@
       <c r="E17" s="1">
         <v>-1</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="47">
         <v>5</v>
       </c>
       <c r="G17" s="1">
@@ -2329,7 +2369,7 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="6">
+      <c r="J17" s="51">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -2344,14 +2384,14 @@
       <c r="M17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N17" s="37"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="39"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="36"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -2367,7 +2407,7 @@
       <c r="E18" s="1">
         <v>5</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="47">
         <v>5</v>
       </c>
       <c r="G18" s="1">
@@ -2375,7 +2415,7 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="6">
+      <c r="J18" s="51">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -2390,14 +2430,14 @@
       <c r="M18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="37"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="39"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="36"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>26</v>
       </c>
@@ -2413,13 +2453,13 @@
       <c r="E19" s="1">
         <v>5</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="47">
         <v>5</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="6">
+      <c r="J19" s="51">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -2434,14 +2474,14 @@
       <c r="M19" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N19" s="37"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="39"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="36"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>27</v>
       </c>
@@ -2457,17 +2497,17 @@
       <c r="E20" s="1">
         <v>5</v>
       </c>
-      <c r="F20" s="1">
-        <v>3</v>
+      <c r="F20" s="47">
+        <v>4</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="6">
+      <c r="J20" s="51">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K20" s="21">
         <f t="shared" si="1"/>
@@ -2480,14 +2520,16 @@
       <c r="M20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="N20" s="37"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="39"/>
+      <c r="N20" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="36"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>28</v>
       </c>
@@ -2503,13 +2545,13 @@
       <c r="E21" s="1">
         <v>4</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="47">
         <v>2</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="6">
+      <c r="J21" s="51">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2524,14 +2566,14 @@
       <c r="M21" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="37"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="39"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="36"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>29</v>
       </c>
@@ -2545,17 +2587,19 @@
         <v>5</v>
       </c>
       <c r="E22" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="F22" s="47">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="6">
+      <c r="J22" s="51">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="K22" s="21">
         <f t="shared" si="1"/>
@@ -2568,14 +2612,16 @@
       <c r="M22" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="N22" s="37"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="39"/>
+      <c r="N22" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="36"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>30</v>
       </c>
@@ -2591,15 +2637,15 @@
       <c r="E23" s="1">
         <v>-1</v>
       </c>
-      <c r="F23" s="1">
-        <v>2</v>
+      <c r="F23" s="47">
+        <v>4</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="6">
+      <c r="J23" s="51">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K23" s="21">
         <f t="shared" si="1"/>
@@ -2612,14 +2658,16 @@
       <c r="M23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="37"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="39"/>
+      <c r="N23" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="36"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>31</v>
       </c>
@@ -2635,7 +2683,7 @@
       <c r="E24" s="1">
         <v>4</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="47">
         <v>4</v>
       </c>
       <c r="G24" s="1">
@@ -2643,7 +2691,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="6">
+      <c r="J24" s="51">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -2656,14 +2704,14 @@
         <v>2</v>
       </c>
       <c r="M24" s="22"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="39"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="36"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>32</v>
       </c>
@@ -2677,13 +2725,13 @@
         <v>-2</v>
       </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="9">
+      <c r="F25" s="49">
         <v>5</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="12"/>
-      <c r="J25" s="6">
+      <c r="J25" s="51">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -2698,258 +2746,273 @@
       <c r="M25" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="N25" s="34"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="36"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="46"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="N17:S17"/>
     <mergeCell ref="N6:S6"/>
-    <mergeCell ref="N1:S1"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="N3:S3"/>
     <mergeCell ref="N4:S4"/>
     <mergeCell ref="N5:S5"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="N9:S9"/>
     <mergeCell ref="N10:S10"/>
     <mergeCell ref="N11:S11"/>
     <mergeCell ref="N12:S12"/>
     <mergeCell ref="N13:S13"/>
     <mergeCell ref="N14:S14"/>
-    <mergeCell ref="N15:S15"/>
-    <mergeCell ref="N16:S16"/>
-    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="N20:S20"/>
     <mergeCell ref="N25:S25"/>
     <mergeCell ref="N19:S19"/>
-    <mergeCell ref="N20:S20"/>
     <mergeCell ref="N21:S21"/>
     <mergeCell ref="N22:S22"/>
     <mergeCell ref="N23:S23"/>
     <mergeCell ref="N24:S24"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="M2:M3 M6:M8 M19 M16 M14 M24:M25 M10:M12">
-    <cfRule type="cellIs" dxfId="61" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="92" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="93" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="94" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="95" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="cellIs" dxfId="57" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="86" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="87" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="88" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="89" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="90" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="91" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="51" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="82" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="83" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="84" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="85" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="cellIs" dxfId="47" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="78" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="79" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="80" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="81" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="cellIs" dxfId="43" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="74" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="75" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="76" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="77" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="cellIs" dxfId="39" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="58" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="59" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="60" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="61" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="cellIs" dxfId="35" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="50" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="51" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="52" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="53" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23">
-    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="46" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="47" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="48" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="49" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="41" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K25">
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L25">
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F25">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
-      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9054CF-1932-4E7E-B41D-6736E7E3027E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -186,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -656,6 +666,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -663,9 +678,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -695,16 +707,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -717,71 +747,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1630,25 +1610,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:I38"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="66.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1688,16 +1668,16 @@
       <c r="M1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
@@ -1711,7 +1691,7 @@
         <v>-2</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="48">
+      <c r="F2" s="35">
         <v>0</v>
       </c>
       <c r="G2" s="7"/>
@@ -1732,14 +1712,14 @@
       <c r="M2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="40"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="44"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -1755,13 +1735,13 @@
       <c r="E3" s="1">
         <v>-2</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="34">
         <v>5</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="51">
+      <c r="J3" s="38">
         <f t="shared" ref="J3:J25" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+4*I3,0)</f>
         <v>20</v>
       </c>
@@ -1776,14 +1756,14 @@
       <c r="M3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="36"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="41"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
@@ -1799,13 +1779,13 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="34">
         <v>3</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="51">
+      <c r="J4" s="38">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -1820,14 +1800,14 @@
       <c r="M4" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="34"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="36"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="41"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
@@ -1843,7 +1823,7 @@
       <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="34">
         <v>4</v>
       </c>
       <c r="G5" s="1">
@@ -1851,7 +1831,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="51">
+      <c r="J5" s="38">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -1866,14 +1846,14 @@
       <c r="M5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="34"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="36"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="41"/>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
@@ -1889,13 +1869,13 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="34">
         <v>4</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="51">
+      <c r="J6" s="38">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -1908,14 +1888,14 @@
         <v>2</v>
       </c>
       <c r="M6" s="22"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="36"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="41"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
@@ -1931,13 +1911,13 @@
       <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="34">
         <v>5</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="51">
+      <c r="J7" s="38">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -1950,14 +1930,14 @@
         <v>2</v>
       </c>
       <c r="M7" s="22"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="36"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="41"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1973,13 +1953,13 @@
       <c r="E8" s="1">
         <v>-2</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="34">
         <v>5</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="51">
+      <c r="J8" s="38">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -1992,14 +1972,14 @@
         <v>2</v>
       </c>
       <c r="M8" s="22"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="36"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="41"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -2013,13 +1993,13 @@
         <v>-2</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="47">
+      <c r="F9" s="34">
         <v>3</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="51">
+      <c r="J9" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -2034,14 +2014,14 @@
       <c r="M9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="34"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="36"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="41"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
@@ -2057,13 +2037,13 @@
       <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="34">
         <v>4</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="51">
+      <c r="J10" s="38">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -2078,16 +2058,16 @@
       <c r="M10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="34" t="s">
+      <c r="N10" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="36"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="41"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
@@ -2101,13 +2081,13 @@
         <v>5</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="47">
+      <c r="F11" s="34">
         <v>3</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="51">
+      <c r="J11" s="38">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -2120,14 +2100,14 @@
         <v>2</v>
       </c>
       <c r="M11" s="22"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="36"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="41"/>
     </row>
-    <row r="12" spans="1:19" s="32" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="32" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
         <v>19</v>
       </c>
@@ -2141,13 +2121,13 @@
         <v>-2</v>
       </c>
       <c r="E12" s="28"/>
-      <c r="F12" s="50">
+      <c r="F12" s="37">
         <v>0</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="29"/>
-      <c r="J12" s="51">
+      <c r="J12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2162,14 +2142,14 @@
       <c r="M12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="41"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="43"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="47"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
@@ -2183,13 +2163,13 @@
         <v>4</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="47">
+      <c r="F13" s="34">
         <v>5</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="51">
+      <c r="J13" s="38">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -2204,14 +2184,14 @@
       <c r="M13" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N13" s="34"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="36"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="41"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
@@ -2227,13 +2207,13 @@
       <c r="E14" s="1">
         <v>-1</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="34">
         <v>3</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="51">
+      <c r="J14" s="38">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2246,14 +2226,14 @@
         <v>2</v>
       </c>
       <c r="M14" s="22"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="36"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="41"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>22</v>
       </c>
@@ -2269,7 +2249,7 @@
       <c r="E15" s="1">
         <v>5</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="34">
         <v>5</v>
       </c>
       <c r="G15" s="1">
@@ -2279,7 +2259,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="11"/>
-      <c r="J15" s="51">
+      <c r="J15" s="38">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -2294,14 +2274,14 @@
       <c r="M15" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N15" s="34"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="36"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="41"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
@@ -2317,7 +2297,7 @@
       <c r="E16" s="1">
         <v>4</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="34">
         <v>4</v>
       </c>
       <c r="G16" s="1">
@@ -2325,7 +2305,7 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="51">
+      <c r="J16" s="38">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -2338,14 +2318,14 @@
         <v>2</v>
       </c>
       <c r="M16" s="22"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="36"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="41"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
@@ -2361,7 +2341,7 @@
       <c r="E17" s="1">
         <v>-1</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="34">
         <v>5</v>
       </c>
       <c r="G17" s="1">
@@ -2369,7 +2349,7 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="51">
+      <c r="J17" s="38">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -2384,14 +2364,14 @@
       <c r="M17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N17" s="34"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="36"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="41"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -2407,7 +2387,7 @@
       <c r="E18" s="1">
         <v>5</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="34">
         <v>5</v>
       </c>
       <c r="G18" s="1">
@@ -2415,7 +2395,7 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="51">
+      <c r="J18" s="38">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -2430,14 +2410,14 @@
       <c r="M18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="34"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="36"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="41"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>26</v>
       </c>
@@ -2453,15 +2433,17 @@
       <c r="E19" s="1">
         <v>5</v>
       </c>
-      <c r="F19" s="47">
-        <v>5</v>
-      </c>
-      <c r="G19" s="1"/>
+      <c r="F19" s="34">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-1</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="51">
+      <c r="J19" s="38">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19" s="21">
         <f t="shared" si="1"/>
@@ -2474,14 +2456,14 @@
       <c r="M19" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N19" s="34"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="36"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="41"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>27</v>
       </c>
@@ -2497,7 +2479,7 @@
       <c r="E20" s="1">
         <v>5</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="34">
         <v>4</v>
       </c>
       <c r="G20" s="1">
@@ -2505,7 +2487,7 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="51">
+      <c r="J20" s="38">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -2520,16 +2502,16 @@
       <c r="M20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="N20" s="34" t="s">
+      <c r="N20" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="36"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="41"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>28</v>
       </c>
@@ -2545,13 +2527,13 @@
       <c r="E21" s="1">
         <v>4</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="34">
         <v>2</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="51">
+      <c r="J21" s="38">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2566,14 +2548,14 @@
       <c r="M21" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="34"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="36"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="41"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>29</v>
       </c>
@@ -2589,7 +2571,7 @@
       <c r="E22" s="1">
         <v>4</v>
       </c>
-      <c r="F22" s="47">
+      <c r="F22" s="34">
         <v>4</v>
       </c>
       <c r="G22" s="1">
@@ -2597,7 +2579,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="51">
+      <c r="J22" s="38">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -2612,16 +2594,16 @@
       <c r="M22" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="N22" s="34" t="s">
+      <c r="N22" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="36"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="41"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>30</v>
       </c>
@@ -2637,13 +2619,13 @@
       <c r="E23" s="1">
         <v>-1</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="34">
         <v>4</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="51">
+      <c r="J23" s="38">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -2658,16 +2640,16 @@
       <c r="M23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="34" t="s">
+      <c r="N23" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="36"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="41"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>31</v>
       </c>
@@ -2683,7 +2665,7 @@
       <c r="E24" s="1">
         <v>4</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="34">
         <v>4</v>
       </c>
       <c r="G24" s="1">
@@ -2691,7 +2673,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="51">
+      <c r="J24" s="38">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -2704,14 +2686,14 @@
         <v>2</v>
       </c>
       <c r="M24" s="22"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="36"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="41"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>32</v>
       </c>
@@ -2725,13 +2707,13 @@
         <v>-2</v>
       </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="49">
+      <c r="F25" s="36">
         <v>5</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="12"/>
-      <c r="J25" s="51">
+      <c r="J25" s="38">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -2746,30 +2728,42 @@
       <c r="M25" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="N25" s="44"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="46"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="50"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N24:S24"/>
     <mergeCell ref="N15:S15"/>
     <mergeCell ref="N16:S16"/>
     <mergeCell ref="N17:S17"/>
@@ -2783,209 +2777,197 @@
     <mergeCell ref="N12:S12"/>
     <mergeCell ref="N13:S13"/>
     <mergeCell ref="N14:S14"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="N24:S24"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="N1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="M2:M3 M6:M8 M19 M16 M14 M24:M25 M10:M12">
-    <cfRule type="cellIs" dxfId="64" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="92" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="93" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="94" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="95" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="cellIs" dxfId="60" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="86" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="87" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="88" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="89" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="90" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="91" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="54" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="82" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="83" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="84" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="85" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="cellIs" dxfId="50" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="78" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="79" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="80" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="81" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="cellIs" dxfId="46" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="74" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="75" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="76" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="77" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="cellIs" dxfId="42" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="58" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="59" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="60" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="61" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="cellIs" dxfId="38" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="50" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="51" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="52" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="53" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23">
-    <cfRule type="cellIs" dxfId="34" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="46" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="47" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="48" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="49" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="40" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="41" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K25">
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L25">
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="26" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3004,14 +2986,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F25">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9054CF-1932-4E7E-B41D-6736E7E3027E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC27CB9B-780C-49B9-90AE-C3288370C18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -680,6 +680,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -696,18 +708,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1614,7 +1614,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1668,14 +1668,14 @@
       <c r="M1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
@@ -1712,12 +1712,12 @@
       <c r="M2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="44"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="48"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
@@ -1829,7 +1829,9 @@
       <c r="G5" s="1">
         <v>5</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
       <c r="I5" s="11"/>
       <c r="J5" s="38">
         <f t="shared" si="0"/>
@@ -1956,12 +1958,14 @@
       <c r="F8" s="34">
         <v>5</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>-1</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="11"/>
       <c r="J8" s="38">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" si="1"/>
@@ -2040,12 +2044,14 @@
       <c r="F10" s="34">
         <v>4</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>-1</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="11"/>
       <c r="J10" s="38">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="1"/>
@@ -2142,12 +2148,12 @@
       <c r="M12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="45"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="47"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="51"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
@@ -2728,12 +2734,12 @@
       <c r="M25" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="N25" s="48"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="50"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="45"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -2752,11 +2758,8 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="N14:S14"/>
     <mergeCell ref="N20:S20"/>
     <mergeCell ref="N25:S25"/>
     <mergeCell ref="N19:S19"/>
@@ -2764,6 +2767,11 @@
     <mergeCell ref="N22:S22"/>
     <mergeCell ref="N23:S23"/>
     <mergeCell ref="N24:S24"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N1:S1"/>
     <mergeCell ref="N15:S15"/>
     <mergeCell ref="N16:S16"/>
     <mergeCell ref="N17:S17"/>
@@ -2775,8 +2783,6 @@
     <mergeCell ref="N10:S10"/>
     <mergeCell ref="N11:S11"/>
     <mergeCell ref="N12:S12"/>
-    <mergeCell ref="N13:S13"/>
-    <mergeCell ref="N14:S14"/>
   </mergeCells>
   <conditionalFormatting sqref="M2:M3 M6:M8 M19 M16 M14 M24:M25 M10:M12">
     <cfRule type="cellIs" dxfId="61" priority="92" operator="equal">

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>ФИО</t>
   </si>
@@ -48,10 +57,130 @@
     <t>КР-3</t>
   </si>
   <si>
-    <t>Итог</t>
-  </si>
-  <si>
-    <t>Оценка</t>
+    <t>Абраменкова Карина Павловна</t>
+  </si>
+  <si>
+    <t>Агапова Екатерина Олеговна</t>
+  </si>
+  <si>
+    <t>Бычкова Елена Романовна</t>
+  </si>
+  <si>
+    <t>Виноградов Владимир Владимирович</t>
+  </si>
+  <si>
+    <t>Воробьев Иван Александрович</t>
+  </si>
+  <si>
+    <t>Глазков Илья Максимович</t>
+  </si>
+  <si>
+    <t>Губеева София Юрьевна</t>
+  </si>
+  <si>
+    <t>Заднипрянец Екатерина Владиславовна</t>
+  </si>
+  <si>
+    <t>Ибрамхалилов Роман Ламетович</t>
+  </si>
+  <si>
+    <t>Капелина Анна Ивановна</t>
+  </si>
+  <si>
+    <t>Карасев Арсений Андреевич</t>
+  </si>
+  <si>
+    <t>Куулар Амина Сергеевна</t>
+  </si>
+  <si>
+    <t>Лищенко Александра Вадимовна</t>
+  </si>
+  <si>
+    <t>Лунин Владимир Анатольевич</t>
+  </si>
+  <si>
+    <t>Оганезов Михаил Алексеевич</t>
+  </si>
+  <si>
+    <t>Попова Полина Владиславовна</t>
+  </si>
+  <si>
+    <t>Родина Ксения Витальевна</t>
+  </si>
+  <si>
+    <t>Словогородская Елизавета Вячеславовна</t>
+  </si>
+  <si>
+    <t>Стоценко Александр Сергеевич</t>
+  </si>
+  <si>
+    <t>Таранов Артём Игоревич</t>
+  </si>
+  <si>
+    <t>Титова Надежда Алексеевна</t>
+  </si>
+  <si>
+    <t>Хрищанович Полина Чеславовна</t>
+  </si>
+  <si>
+    <t>Чиченкова Карина Вячеславовна</t>
+  </si>
+  <si>
+    <t>Щербаков Михаил Михайлович</t>
+  </si>
+  <si>
+    <t>Примечания к кр-1</t>
+  </si>
+  <si>
+    <t>неявка</t>
+  </si>
+  <si>
+    <t>ответ неверный во 2м номере</t>
+  </si>
+  <si>
+    <t>ответы неверные во 2м и 4м номерах</t>
+  </si>
+  <si>
+    <t>недостаточная точность в 1м номере</t>
+  </si>
+  <si>
+    <t>5й номер отсутствует</t>
+  </si>
+  <si>
+    <t>ответ неверный в 4м номере (+опечатка в 5м)</t>
+  </si>
+  <si>
+    <t>ответ неверный во 1м номере</t>
+  </si>
+  <si>
+    <t>ответ неверный во 2м номере; 5й отсутствует</t>
+  </si>
+  <si>
+    <t>ответ неверный во 1м номере; 2й и 5й номера отсутствуют</t>
+  </si>
+  <si>
+    <t>2й и 5й номера отсутствуют</t>
+  </si>
+  <si>
+    <t>но возведение присутствует</t>
+  </si>
+  <si>
+    <t>в 5м номере нет кода</t>
+  </si>
+  <si>
+    <t>Half-term</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Total score</t>
+  </si>
+  <si>
+    <t>переписаны верно все номера</t>
+  </si>
+  <si>
+    <t>Примечания к кр-2</t>
   </si>
 </sst>
 </file>
@@ -75,15 +204,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -125,13 +266,43 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -140,13 +311,28 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -158,7 +344,22 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -173,7 +374,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -185,10 +386,34 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -200,13 +425,117 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -215,13 +544,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -230,25 +557,23 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -272,81 +597,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -359,37 +615,717 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -665,379 +1601,1385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="B2" s="6">
+        <v>4</v>
+      </c>
+      <c r="C2" s="17">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7">
+        <v>-2</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="35">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="6">
+        <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+4*I2,0)</f>
         <v>10</v>
       </c>
+      <c r="K2" s="21">
+        <f>IF(J2&gt;57.5/5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="21">
+        <f>MAX(_xlfn.FLOOR.MATH((J2-10)/10),2)</f>
+        <v>2</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="43"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="45"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3" s="18">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34">
+        <v>5</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="38">
+        <f t="shared" ref="J3:J25" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+4*I3,0)</f>
+        <v>25</v>
+      </c>
+      <c r="K3" s="21">
+        <f t="shared" ref="K3:K25" si="1">IF(J3&gt;57.5/5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="21">
+        <f>MAX(_xlfn.FLOOR.MATH((J3-10)/10),2)</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="41"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="34">
+        <v>3</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="38">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="K4" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="21">
+        <f t="shared" ref="L4:L25" si="2">MAX(_xlfn.FLOOR.MATH((J4-10)/10),2)</f>
+        <v>2</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="39"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="41"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
+    <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="34">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="38">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="K5" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="39"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="41"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="15">
+        <v>5</v>
+      </c>
+      <c r="C6" s="19">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="34">
+        <v>4</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="38">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="K6" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="41"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="34">
+        <v>5</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="38">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="K7" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M7" s="22"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="18">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="F8" s="34">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-1</v>
+      </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="38">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="K8" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M8" s="22"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="41"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" s="18">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-2</v>
+      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="34">
+        <v>3</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="38">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K9" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="39"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="41"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8">
+        <v>5</v>
+      </c>
+      <c r="C10" s="18">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="34">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-1</v>
+      </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="38">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="K10" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="41"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8">
+        <v>5</v>
+      </c>
+      <c r="C11" s="18">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="34">
+        <v>3</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="38">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="K11" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M11" s="22"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="41"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
+    <row r="12" spans="1:19" s="32" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="26">
+        <v>-3</v>
+      </c>
+      <c r="C12" s="27">
+        <v>0</v>
+      </c>
+      <c r="D12" s="28">
+        <v>-2</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="37">
+        <v>0</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="46"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="48"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="8">
+        <v>4</v>
+      </c>
+      <c r="C13" s="18">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="34">
+        <v>5</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="38">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="K13" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="39"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="41"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="8">
+        <v>3</v>
+      </c>
+      <c r="C14" s="18">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="34">
+        <v>3</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="38">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="K14" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M14" s="22"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="41"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14"/>
+    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="19">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="34">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="38">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="K15" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="39"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="41"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="15">
+        <v>5</v>
+      </c>
+      <c r="C16" s="19">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" s="34">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="38">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="K16" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M16" s="22"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="41"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="8">
+        <v>5</v>
+      </c>
+      <c r="C17" s="18">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="34">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="14"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="K17" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="39"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="41"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5</v>
+      </c>
+      <c r="C18" s="18">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="34">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="38">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="K18" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="39"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="41"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="8">
+        <v>5</v>
+      </c>
+      <c r="C19" s="18">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19" s="34">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-1</v>
+      </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="38">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="K19" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" s="39"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="41"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="8">
+        <v>5</v>
+      </c>
+      <c r="C20" s="18">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="34">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="38">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="K20" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="41"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="8">
+        <v>3</v>
+      </c>
+      <c r="C21" s="18">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="34">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="38">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="K21" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="39"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="41"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="8">
+        <v>4</v>
+      </c>
+      <c r="C22" s="18">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="34">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="14"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="38">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="K22" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="41"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="8">
+        <v>4</v>
+      </c>
+      <c r="C23" s="18">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4</v>
+      </c>
+      <c r="F23" s="34">
+        <v>4</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="14"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="38">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="K23" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="41"/>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="8">
+        <v>5</v>
+      </c>
+      <c r="C24" s="18">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="34">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5</v>
+      </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="K24" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L24" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M24" s="22"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="41"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="17"/>
+    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="33">
+        <v>5</v>
+      </c>
+      <c r="C25" s="20">
+        <v>5</v>
+      </c>
+      <c r="D25" s="9">
+        <v>-2</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="36">
+        <v>5</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="38">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="K25" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L25" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="49"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="51"/>
     </row>
   </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="N11:S11"/>
+    <mergeCell ref="N12:S12"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="N14:S14"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M2:M3 M6:M8 M19 M16 M14 M24:M25 M10:M12">
+    <cfRule type="cellIs" dxfId="61" priority="92" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="93" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="94" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="95" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C25">
+    <cfRule type="cellIs" dxfId="57" priority="86" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="87" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="88" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="89" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="90" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="91" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="cellIs" dxfId="51" priority="82" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="83" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="84" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="85" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20">
+    <cfRule type="cellIs" dxfId="47" priority="78" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="79" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="80" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="81" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18">
+    <cfRule type="cellIs" dxfId="43" priority="74" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="75" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="76" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="77" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22">
+    <cfRule type="cellIs" dxfId="39" priority="58" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="59" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="60" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="61" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="cellIs" dxfId="35" priority="50" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="51" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="52" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="53" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23">
+    <cfRule type="cellIs" dxfId="31" priority="46" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="47" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="48" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="49" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21">
+    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="40" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="41" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K25">
+    <cfRule type="cellIs" dxfId="23" priority="30" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="31" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L25">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="26" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F25">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC27CB9B-780C-49B9-90AE-C3288370C18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886D0298-DCF7-40D9-AF9D-13DB87264460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>ФИО</t>
   </si>
@@ -184,13 +184,10 @@
     <t>Примечания к кр-2</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>arr</t>
+    <t>5(без допуска)</t>
+  </si>
+  <si>
+    <t>4 (без допуска)</t>
   </si>
 </sst>
 </file>
@@ -680,9 +677,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,6 +684,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1611,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1623,6 +1620,7 @@
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="66.6640625" bestFit="1" customWidth="1"/>
@@ -1668,14 +1666,14 @@
       <c r="M1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
@@ -1733,7 +1731,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="34">
         <v>5</v>
@@ -1743,7 +1741,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="38">
         <f t="shared" ref="J3:J25" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+4*I3,0)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K3" s="21">
         <f t="shared" ref="K3:K25" si="1">IF(J3&gt;57.5/5,1,0)</f>
@@ -1868,8 +1866,8 @@
       <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
-        <v>5</v>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F6" s="34">
         <v>4</v>
@@ -1877,17 +1875,17 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="38">
+      <c r="J6" s="38" t="e">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="K6" s="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L6" s="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L6" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="39"/>
@@ -2086,7 +2084,9 @@
       <c r="D11" s="1">
         <v>5</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>-2</v>
+      </c>
       <c r="F11" s="34">
         <v>3</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="38">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" si="1"/>
@@ -2168,7 +2168,9 @@
       <c r="D13" s="1">
         <v>4</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>-2</v>
+      </c>
       <c r="F13" s="34">
         <v>5</v>
       </c>
@@ -2177,7 +2179,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="38">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K13" s="21">
         <f t="shared" si="1"/>
@@ -2202,7 +2204,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="8">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="18">
         <v>5</v>
@@ -2211,7 +2213,7 @@
         <v>-1</v>
       </c>
       <c r="E14" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F14" s="34">
         <v>3</v>
@@ -2221,7 +2223,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="38">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K14" s="21">
         <f t="shared" si="1"/>
@@ -2345,19 +2347,19 @@
         <v>5</v>
       </c>
       <c r="E17" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F17" s="34">
         <v>5</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="11"/>
       <c r="J17" s="38">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K17" s="21">
         <f t="shared" si="1"/>
@@ -2397,13 +2399,13 @@
         <v>5</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="11"/>
       <c r="J18" s="38">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K18" s="21">
         <f t="shared" si="1"/>
@@ -2530,26 +2532,28 @@
       <c r="D21" s="1">
         <v>5</v>
       </c>
-      <c r="E21" s="1">
-        <v>4</v>
+      <c r="E21" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F21" s="34">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="38">
+      <c r="J21" s="38" t="e">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K21" s="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K21" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L21" s="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L21" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M21" s="18" t="s">
         <v>42</v>
@@ -2623,7 +2627,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F23" s="34">
         <v>4</v>
@@ -2633,7 +2637,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="38">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K23" s="21">
         <f t="shared" si="1"/>
@@ -2675,13 +2679,13 @@
         <v>4</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="11"/>
       <c r="J24" s="38">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K24" s="21">
         <f t="shared" si="1"/>
@@ -2734,47 +2738,20 @@
       <c r="M25" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="N25" s="43"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="45"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>52</v>
-      </c>
+      <c r="N25" s="42"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N13:S13"/>
-    <mergeCell ref="N14:S14"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="N24:S24"/>
-    <mergeCell ref="N18:S18"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="N8:S8"/>
     <mergeCell ref="N9:S9"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="N15:S15"/>
-    <mergeCell ref="N16:S16"/>
-    <mergeCell ref="N17:S17"/>
     <mergeCell ref="N6:S6"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="N3:S3"/>
@@ -2783,6 +2760,18 @@
     <mergeCell ref="N10:S10"/>
     <mergeCell ref="N11:S11"/>
     <mergeCell ref="N12:S12"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N24:S24"/>
   </mergeCells>
   <conditionalFormatting sqref="M2:M3 M6:M8 M19 M16 M14 M24:M25 M10:M12">
     <cfRule type="cellIs" dxfId="61" priority="92" operator="equal">

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886D0298-DCF7-40D9-AF9D-13DB87264460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C090C5-3259-4913-83A1-6B5A4EBC69C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,15 +677,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -705,6 +696,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1611,7 +1611,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1666,14 +1666,14 @@
       <c r="M1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
@@ -1710,12 +1710,12 @@
       <c r="M2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="48"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="45"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
@@ -1959,7 +1959,9 @@
       <c r="G8" s="1">
         <v>-1</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
       <c r="I8" s="11"/>
       <c r="J8" s="38">
         <f t="shared" si="0"/>
@@ -2148,12 +2150,12 @@
       <c r="M12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="49"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="51"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="48"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
@@ -2401,7 +2403,9 @@
       <c r="G18" s="1">
         <v>5</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
       <c r="I18" s="11"/>
       <c r="J18" s="38">
         <f t="shared" si="0"/>
@@ -2493,7 +2497,9 @@
       <c r="G20" s="1">
         <v>5</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
       <c r="I20" s="11"/>
       <c r="J20" s="38">
         <f t="shared" si="0"/>
@@ -2738,15 +2744,25 @@
       <c r="M25" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="N25" s="42"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="44"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N24:S24"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="N8:S8"/>
     <mergeCell ref="N9:S9"/>
@@ -2762,16 +2778,6 @@
     <mergeCell ref="N12:S12"/>
     <mergeCell ref="N13:S13"/>
     <mergeCell ref="N14:S14"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="N16:S16"/>
-    <mergeCell ref="N17:S17"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="N24:S24"/>
   </mergeCells>
   <conditionalFormatting sqref="M2:M3 M6:M8 M19 M16 M14 M24:M25 M10:M12">
     <cfRule type="cellIs" dxfId="61" priority="92" operator="equal">

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C090C5-3259-4913-83A1-6B5A4EBC69C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>ФИО</t>
   </si>
@@ -185,16 +184,13 @@
   </si>
   <si>
     <t>5(без допуска)</t>
-  </si>
-  <si>
-    <t>4 (без допуска)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +199,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -622,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -668,6 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1607,26 +1613,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A27" sqref="A27:H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="66.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1666,16 +1672,16 @@
       <c r="M1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
@@ -1710,14 +1716,14 @@
       <c r="M2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="46"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -1754,14 +1760,14 @@
       <c r="M3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="41"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="42"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
@@ -1798,14 +1804,14 @@
       <c r="M4" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="39"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="41"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="42"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
@@ -1846,14 +1852,14 @@
       <c r="M5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="41"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="42"/>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
@@ -1888,14 +1894,14 @@
         <v>#VALUE!</v>
       </c>
       <c r="M6" s="22"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="41"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="42"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
@@ -1930,14 +1936,14 @@
         <v>2</v>
       </c>
       <c r="M7" s="22"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="41"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="42"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1951,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="1">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="34">
         <v>5</v>
@@ -1965,7 +1971,7 @@
       <c r="I8" s="11"/>
       <c r="J8" s="38">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" si="1"/>
@@ -1976,14 +1982,14 @@
         <v>2</v>
       </c>
       <c r="M8" s="22"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="41"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="42"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -2018,14 +2024,14 @@
       <c r="M9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="41"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="42"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
@@ -2045,13 +2051,15 @@
         <v>4</v>
       </c>
       <c r="G10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
       <c r="I10" s="11"/>
       <c r="J10" s="38">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="1"/>
@@ -2064,16 +2072,16 @@
       <c r="M10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="42"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
@@ -2087,7 +2095,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="1">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="34">
         <v>3</v>
@@ -2097,7 +2105,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="38">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" si="1"/>
@@ -2108,14 +2116,14 @@
         <v>2</v>
       </c>
       <c r="M11" s="22"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="41"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="42"/>
     </row>
-    <row r="12" spans="1:19" s="32" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" s="32" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>19</v>
       </c>
@@ -2150,14 +2158,14 @@
       <c r="M12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="46"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="48"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="49"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
@@ -2194,14 +2202,14 @@
       <c r="M13" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N13" s="39"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="41"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="42"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
@@ -2236,14 +2244,14 @@
         <v>2</v>
       </c>
       <c r="M14" s="22"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="41"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="42"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>22</v>
       </c>
@@ -2284,14 +2292,14 @@
       <c r="M15" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="41"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="42"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
@@ -2328,14 +2336,14 @@
         <v>2</v>
       </c>
       <c r="M16" s="22"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="41"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="42"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
@@ -2374,14 +2382,14 @@
       <c r="M17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N17" s="39"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="41"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="42"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -2422,14 +2430,14 @@
       <c r="M18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="39"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="41"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="42"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>26</v>
       </c>
@@ -2468,14 +2476,14 @@
       <c r="M19" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N19" s="39"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="41"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="42"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>27</v>
       </c>
@@ -2498,12 +2506,12 @@
         <v>5</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="38">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K20" s="21">
         <f t="shared" si="1"/>
@@ -2511,21 +2519,21 @@
       </c>
       <c r="L20" s="21">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="N20" s="39" t="s">
+      <c r="N20" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="42"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>28</v>
       </c>
@@ -2538,8 +2546,8 @@
       <c r="D21" s="1">
         <v>5</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>52</v>
+      <c r="E21" s="1">
+        <v>4</v>
       </c>
       <c r="F21" s="34">
         <v>2</v>
@@ -2549,29 +2557,29 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="38" t="e">
+      <c r="J21" s="38">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K21" s="21" t="e">
+        <v>24</v>
+      </c>
+      <c r="K21" s="21">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L21" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="L21" s="21">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>2</v>
       </c>
       <c r="M21" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="39"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="41"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="42"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>29</v>
       </c>
@@ -2593,7 +2601,9 @@
       <c r="G22" s="1">
         <v>5</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
       <c r="I22" s="11"/>
       <c r="J22" s="38">
         <f t="shared" si="0"/>
@@ -2610,16 +2620,16 @@
       <c r="M22" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="N22" s="39" t="s">
+      <c r="N22" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="42"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>30</v>
       </c>
@@ -2656,16 +2666,16 @@
       <c r="M23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="39" t="s">
+      <c r="N23" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="42"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>31</v>
       </c>
@@ -2702,14 +2712,14 @@
         <v>2</v>
       </c>
       <c r="M24" s="22"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="41"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="42"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>32</v>
       </c>
@@ -2744,12 +2754,15 @@
       <c r="M25" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="N25" s="49"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="51"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="52"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="25">

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24527D51-43E7-41FE-8EE3-9B00B1DED3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t>ФИО</t>
   </si>
@@ -173,9 +172,6 @@
   </si>
   <si>
     <t>Примечания к кр-2</t>
-  </si>
-  <si>
-    <t>5(без допуска)</t>
   </si>
   <si>
     <t>Final Mark</t>
@@ -262,7 +258,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -750,20 +746,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1679,30 +1675,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="66.6640625" customWidth="1"/>
-    <col min="13" max="18" width="8.88671875" customWidth="1"/>
-    <col min="19" max="19" width="56.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="41.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="66.7109375" customWidth="1"/>
+    <col min="13" max="18" width="8.85546875" customWidth="1"/>
+    <col min="19" max="19" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1734,7 +1730,7 @@
         <v>45</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>33</v>
@@ -1748,13 +1744,13 @@
       <c r="Q1" s="47"/>
       <c r="R1" s="47"/>
       <c r="S1" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>9</v>
       </c>
@@ -1771,7 +1767,7 @@
         <v>-3</v>
       </c>
       <c r="F2" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" s="11">
         <v>-2</v>
@@ -1784,7 +1780,7 @@
       </c>
       <c r="J2" s="23">
         <f>MAX(((B2+D2+E2+G2+H2)*2+C2*5+F2*5)/20,0)</f>
-        <v>0.6</v>
+        <v>1.85</v>
       </c>
       <c r="K2" s="42">
         <f>ROUND( (I2+J2)/2-0.25,0)</f>
@@ -1793,18 +1789,18 @@
       <c r="L2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
       <c r="S2" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T2" s="20"/>
     </row>
-    <row r="3" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>10</v>
       </c>
@@ -1843,18 +1839,18 @@
       <c r="L3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
       <c r="S3" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T3" s="20"/>
     </row>
-    <row r="4" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>11</v>
       </c>
@@ -1893,18 +1889,18 @@
       <c r="L4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
       <c r="S4" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T4" s="20"/>
     </row>
-    <row r="5" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
         <v>12</v>
       </c>
@@ -1943,19 +1939,19 @@
       <c r="L5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
       <c r="S5" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T5" s="20"/>
     </row>
-    <row r="6" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="13">
@@ -1967,8 +1963,8 @@
       <c r="D6" s="11">
         <v>5</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>48</v>
+      <c r="E6" s="11">
+        <v>5</v>
       </c>
       <c r="F6" s="11">
         <v>4</v>
@@ -1982,27 +1978,27 @@
       <c r="I6" s="23">
         <v>4</v>
       </c>
-      <c r="J6" s="23" t="e">
+      <c r="J6" s="23">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6" s="42" t="e">
+        <v>3.45</v>
+      </c>
+      <c r="K6" s="42">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>3</v>
       </c>
       <c r="L6" s="10"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
       <c r="S6" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T6" s="20"/>
     </row>
-    <row r="7" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>14</v>
       </c>
@@ -2039,19 +2035,19 @@
         <v>3</v>
       </c>
       <c r="L7" s="10"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
       <c r="S7" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T7" s="20"/>
     </row>
-    <row r="8" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="9">
@@ -2070,35 +2066,35 @@
         <v>5</v>
       </c>
       <c r="G8" s="11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H8" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I8" s="23">
         <v>3</v>
       </c>
       <c r="J8" s="23">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="K8" s="42">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" s="10"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
       <c r="S8" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T8" s="20"/>
     </row>
-    <row r="9" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>16</v>
       </c>
@@ -2135,20 +2131,20 @@
         <v>1</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
+        <v>74</v>
+      </c>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
       <c r="S9" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T9" s="20"/>
     </row>
-    <row r="10" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>17</v>
       </c>
@@ -2187,20 +2183,20 @@
       <c r="L10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="45" t="s">
+      <c r="M10" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
       <c r="S10" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T10" s="20"/>
     </row>
-    <row r="11" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>18</v>
       </c>
@@ -2237,18 +2233,18 @@
         <v>2</v>
       </c>
       <c r="L11" s="10"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
       <c r="S11" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T11" s="20"/>
     </row>
-    <row r="12" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>19</v>
       </c>
@@ -2287,16 +2283,16 @@
       <c r="L12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
       <c r="S12" s="11"/>
       <c r="T12" s="20"/>
     </row>
-    <row r="13" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>20</v>
       </c>
@@ -2335,19 +2331,19 @@
       <c r="L13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
       <c r="S13" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T13" s="20"/>
     </row>
-    <row r="14" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="9">
@@ -2357,7 +2353,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="11">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E14" s="11">
         <v>4</v>
@@ -2366,9 +2362,9 @@
         <v>3</v>
       </c>
       <c r="G14" s="11">
-        <v>-2</v>
-      </c>
-      <c r="H14" s="49">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="45">
         <v>-1</v>
       </c>
       <c r="I14" s="23">
@@ -2376,25 +2372,25 @@
       </c>
       <c r="J14" s="23">
         <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>2.9</v>
       </c>
       <c r="K14" s="42">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14" s="10"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
       <c r="S14" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T14" s="20"/>
     </row>
-    <row r="15" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>22</v>
       </c>
@@ -2433,19 +2429,19 @@
       <c r="L15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
       <c r="S15" s="11" t="s">
         <v>34</v>
       </c>
       <c r="T15" s="20"/>
     </row>
-    <row r="16" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="33" t="s">
+    <row r="16" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="13">
@@ -2464,36 +2460,36 @@
         <v>4</v>
       </c>
       <c r="G16" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" s="12">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I16" s="23">
         <v>3</v>
       </c>
       <c r="J16" s="23">
         <f t="shared" si="0"/>
-        <v>3.55</v>
+        <v>4.55</v>
       </c>
       <c r="K16" s="42">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16" s="10"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
       <c r="S16" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T16" s="20"/>
     </row>
-    <row r="17" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="33" t="s">
+    <row r="17" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="9">
@@ -2515,34 +2511,34 @@
         <v>5</v>
       </c>
       <c r="H17" s="12">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I17" s="23">
         <v>3</v>
       </c>
       <c r="J17" s="23">
         <f t="shared" si="0"/>
-        <v>4.05</v>
+        <v>4.55</v>
       </c>
       <c r="K17" s="42">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
       <c r="S17" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T17" s="20"/>
     </row>
-    <row r="18" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40" t="s">
         <v>25</v>
       </c>
@@ -2581,19 +2577,19 @@
       <c r="L18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
       <c r="S18" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T18" s="20"/>
     </row>
-    <row r="19" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="39" t="s">
+    <row r="19" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="43" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="9">
@@ -2612,39 +2608,39 @@
         <v>5</v>
       </c>
       <c r="G19" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H19" s="48">
-        <v>-1</v>
+        <v>4</v>
+      </c>
+      <c r="H19" s="44">
+        <v>4</v>
       </c>
       <c r="I19" s="23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J19" s="23">
         <f t="shared" si="0"/>
-        <v>3.55</v>
+        <v>4.55</v>
       </c>
       <c r="K19" s="42">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
       <c r="S19" s="11" t="s">
         <v>34</v>
       </c>
       <c r="T19" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
         <v>27</v>
       </c>
@@ -2683,20 +2679,20 @@
       <c r="L20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="45" t="s">
+      <c r="M20" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
       <c r="S20" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T20" s="20"/>
     </row>
-    <row r="21" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
         <v>28</v>
       </c>
@@ -2718,15 +2714,15 @@
       <c r="G21" s="11">
         <v>4</v>
       </c>
-      <c r="H21" s="48">
-        <v>-1</v>
+      <c r="H21" s="44">
+        <v>4</v>
       </c>
       <c r="I21" s="23">
         <v>2</v>
       </c>
       <c r="J21" s="23">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K21" s="42">
         <f t="shared" si="1"/>
@@ -2735,18 +2731,18 @@
       <c r="L21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
       <c r="S21" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T21" s="20"/>
     </row>
-    <row r="22" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
         <v>29</v>
       </c>
@@ -2785,20 +2781,20 @@
       <c r="L22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M22" s="45" t="s">
+      <c r="M22" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
       <c r="S22" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T22" s="20"/>
     </row>
-    <row r="23" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
         <v>30</v>
       </c>
@@ -2837,21 +2833,21 @@
       <c r="L23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="45" t="s">
+      <c r="M23" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
       <c r="S23" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T23" s="20"/>
     </row>
-    <row r="24" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="33" t="s">
+    <row r="24" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="9">
@@ -2873,32 +2869,32 @@
         <v>5</v>
       </c>
       <c r="H24" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I24" s="23">
         <v>3</v>
       </c>
       <c r="J24" s="23">
         <f t="shared" si="0"/>
-        <v>4.1500000000000004</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="K24" s="42">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L24" s="10"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
       <c r="S24" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T24" s="20"/>
     </row>
-    <row r="25" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
         <v>32</v>
       </c>
@@ -2937,28 +2933,28 @@
       <c r="L25" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
       <c r="S25" s="15" t="s">
         <v>34</v>
       </c>
       <c r="T25" s="21"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
-        <v>73</v>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
+        <v>72</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="48"/>
       <c r="B28" s="27">
         <v>2</v>
       </c>
@@ -2972,24 +2968,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44" t="s">
-        <v>74</v>
+    <row r="29" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>73</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="48"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="48"/>
       <c r="B31" s="36">
         <v>2</v>
       </c>
@@ -3000,11 +2996,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="M24:R24"/>
     <mergeCell ref="M7:R7"/>
     <mergeCell ref="M8:R8"/>
     <mergeCell ref="M9:R9"/>
@@ -3020,18 +3028,6 @@
     <mergeCell ref="M12:R12"/>
     <mergeCell ref="M13:R13"/>
     <mergeCell ref="M14:R14"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="M24:R24"/>
   </mergeCells>
   <conditionalFormatting sqref="L2:L3 L6:L8 L19 L16 L14 L24:L25 L10:L12">
     <cfRule type="cellIs" dxfId="62" priority="101" operator="equal">

--- a/BBI-23-1.xlsx
+++ b/BBI-23-1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
   <si>
     <t>ФИО</t>
   </si>
@@ -253,6 +253,15 @@
   </si>
   <si>
     <t>ответ неверный в 1м номере</t>
+  </si>
+  <si>
+    <t>Алексеев Артем Алесандрович</t>
+  </si>
+  <si>
+    <t>Чайкина Софья Сергеевна</t>
+  </si>
+  <si>
+    <t>Ширшов Никита Сергеевич</t>
   </si>
 </sst>
 </file>
@@ -748,16 +757,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1676,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,14 +1744,14 @@
       <c r="L1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
       <c r="S1" s="18" t="s">
         <v>51</v>
       </c>
@@ -1789,12 +1798,12 @@
       <c r="L2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
       <c r="S2" s="11" t="s">
         <v>62</v>
       </c>
@@ -1839,12 +1848,12 @@
       <c r="L3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
       <c r="S3" s="11" t="s">
         <v>61</v>
       </c>
@@ -1889,12 +1898,12 @@
       <c r="L4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
       <c r="S4" s="11" t="s">
         <v>52</v>
       </c>
@@ -1939,12 +1948,12 @@
       <c r="L5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
       <c r="S5" s="11" t="s">
         <v>60</v>
       </c>
@@ -1987,12 +1996,12 @@
         <v>3</v>
       </c>
       <c r="L6" s="10"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
       <c r="S6" s="11" t="s">
         <v>53</v>
       </c>
@@ -2035,12 +2044,12 @@
         <v>3</v>
       </c>
       <c r="L7" s="10"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
       <c r="S7" s="11" t="s">
         <v>59</v>
       </c>
@@ -2083,12 +2092,12 @@
         <v>4</v>
       </c>
       <c r="L8" s="10"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
       <c r="S8" s="11" t="s">
         <v>58</v>
       </c>
@@ -2133,12 +2142,12 @@
       <c r="L9" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
       <c r="S9" s="11" t="s">
         <v>54</v>
       </c>
@@ -2183,14 +2192,14 @@
       <c r="L10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="46" t="s">
+      <c r="M10" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
       <c r="S10" s="11" t="s">
         <v>57</v>
       </c>
@@ -2233,12 +2242,12 @@
         <v>2</v>
       </c>
       <c r="L11" s="10"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
       <c r="S11" s="11" t="s">
         <v>55</v>
       </c>
@@ -2283,12 +2292,12 @@
       <c r="L12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
       <c r="S12" s="11"/>
       <c r="T12" s="20"/>
     </row>
@@ -2331,12 +2340,12 @@
       <c r="L13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
       <c r="S13" s="11" t="s">
         <v>71</v>
       </c>
@@ -2379,12 +2388,12 @@
         <v>3</v>
       </c>
       <c r="L14" s="10"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
       <c r="S14" s="11" t="s">
         <v>56</v>
       </c>
@@ -2429,12 +2438,12 @@
       <c r="L15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
       <c r="S15" s="11" t="s">
         <v>34</v>
       </c>
@@ -2477,12 +2486,12 @@
         <v>4</v>
       </c>
       <c r="L16" s="10"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
       <c r="S16" s="11" t="s">
         <v>64</v>
       </c>
@@ -2527,12 +2536,12 @@
       <c r="L17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
       <c r="S17" s="11" t="s">
         <v>63</v>
       </c>
@@ -2577,12 +2586,12 @@
       <c r="L18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
       <c r="S18" s="11" t="s">
         <v>65</v>
       </c>
@@ -2627,12 +2636,12 @@
       <c r="L19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
       <c r="S19" s="11" t="s">
         <v>34</v>
       </c>
@@ -2679,14 +2688,14 @@
       <c r="L20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="46" t="s">
+      <c r="M20" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
       <c r="S20" s="11" t="s">
         <v>66</v>
       </c>
@@ -2731,12 +2740,12 @@
       <c r="L21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
       <c r="S21" s="11" t="s">
         <v>67</v>
       </c>
@@ -2781,14 +2790,14 @@
       <c r="L22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M22" s="46" t="s">
+      <c r="M22" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
       <c r="S22" s="11" t="s">
         <v>68</v>
       </c>
@@ -2833,14 +2842,14 @@
       <c r="L23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="46" t="s">
+      <c r="M23" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
       <c r="S23" s="11" t="s">
         <v>69</v>
       </c>
@@ -2883,12 +2892,12 @@
         <v>4</v>
       </c>
       <c r="L24" s="10"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
       <c r="S24" s="11" t="s">
         <v>70</v>
       </c>
@@ -2933,19 +2942,19 @@
       <c r="L25" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
       <c r="S25" s="15" t="s">
         <v>34</v>
       </c>
       <c r="T25" s="21"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="46" t="s">
         <v>72</v>
       </c>
       <c r="B27" s="26"/>
@@ -2954,7 +2963,7 @@
       <c r="E27" s="26"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="27">
         <v>2</v>
       </c>
@@ -2969,7 +2978,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="46" t="s">
         <v>73</v>
       </c>
       <c r="B29" s="35"/>
@@ -2978,14 +2987,14 @@
       <c r="E29" s="35"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="36">
         <v>2</v>
       </c>
@@ -2996,23 +3005,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
       <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="M24:R24"/>
     <mergeCell ref="M7:R7"/>
     <mergeCell ref="M8:R8"/>
     <mergeCell ref="M9:R9"/>
@@ -3028,6 +3038,18 @@
     <mergeCell ref="M12:R12"/>
     <mergeCell ref="M13:R13"/>
     <mergeCell ref="M14:R14"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="M24:R24"/>
   </mergeCells>
   <conditionalFormatting sqref="L2:L3 L6:L8 L19 L16 L14 L24:L25 L10:L12">
     <cfRule type="cellIs" dxfId="62" priority="101" operator="equal">
